--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.04509040756519</v>
+        <v>13.04509040756511</v>
       </c>
       <c r="D2">
-        <v>16.58001746533426</v>
+        <v>16.58001746533405</v>
       </c>
       <c r="E2">
-        <v>24.30842788688475</v>
+        <v>24.30842788688464</v>
       </c>
       <c r="F2">
-        <v>96.8786340436486</v>
+        <v>96.87863404364792</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>118.4084522741739</v>
+        <v>118.4084522741736</v>
       </c>
       <c r="K2">
-        <v>15.15080531124575</v>
+        <v>15.1508053112457</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.99829310310204</v>
+        <v>10.99829310310197</v>
       </c>
       <c r="D3">
-        <v>12.80261397024395</v>
+        <v>12.80261397024396</v>
       </c>
       <c r="E3">
-        <v>20.36410104802558</v>
+        <v>20.3641010480255</v>
       </c>
       <c r="F3">
-        <v>77.82591992694283</v>
+        <v>77.82591992694219</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>103.0276868866971</v>
+        <v>103.0276868866968</v>
       </c>
       <c r="K3">
-        <v>12.73561925591499</v>
+        <v>12.73561925591496</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.08970785376759</v>
+        <v>10.08970785376751</v>
       </c>
       <c r="D4">
-        <v>11.27046967295542</v>
+        <v>11.27046967295522</v>
       </c>
       <c r="E4">
-        <v>18.64267503784492</v>
+        <v>18.6426750378448</v>
       </c>
       <c r="F4">
-        <v>69.91357488645615</v>
+        <v>69.91357488645554</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>95.71169285241072</v>
+        <v>95.71169285241041</v>
       </c>
       <c r="K4">
-        <v>11.68766835681139</v>
+        <v>11.6876683568113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.748373910716834</v>
+        <v>9.748373910716904</v>
       </c>
       <c r="D5">
-        <v>10.71756221079159</v>
+        <v>10.71756221079169</v>
       </c>
       <c r="E5">
-        <v>17.99917463719914</v>
+        <v>17.99917463719919</v>
       </c>
       <c r="F5">
-        <v>67.0326895645052</v>
+        <v>67.03268956450525</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>92.89444281221456</v>
+        <v>92.89444281221468</v>
       </c>
       <c r="K5">
-        <v>11.2966650897765</v>
+        <v>11.29666508977654</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.692854406191268</v>
+        <v>9.692854406191319</v>
       </c>
       <c r="D6">
-        <v>10.62880246230235</v>
+        <v>10.62880246230218</v>
       </c>
       <c r="E6">
-        <v>17.89464804778872</v>
+        <v>17.89464804778867</v>
       </c>
       <c r="F6">
-        <v>66.56896911775796</v>
+        <v>66.56896911775718</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>92.43279405290043</v>
+        <v>92.43279405290026</v>
       </c>
       <c r="K6">
-        <v>11.23318782992118</v>
+        <v>11.23318782992112</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.08501671696483</v>
+        <v>10.08501671696462</v>
       </c>
       <c r="D7">
-        <v>11.2627867758619</v>
+        <v>11.26278677586168</v>
       </c>
       <c r="E7">
-        <v>18.63382043192597</v>
+        <v>18.63382043192583</v>
       </c>
       <c r="F7">
-        <v>69.87363565261194</v>
+        <v>69.87363565261114</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>95.67322117742002</v>
+        <v>95.67322117741961</v>
       </c>
       <c r="K7">
-        <v>11.68228554835178</v>
+        <v>11.68228554835179</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D8">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E8">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F8">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K8">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D9">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E9">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F9">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K9">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D10">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E10">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F10">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K10">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D11">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E11">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F11">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K11">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D12">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E12">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F12">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K12">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D13">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E13">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F13">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K13">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D14">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E14">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F14">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K14">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D15">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E15">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F15">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K15">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D16">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E16">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F16">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K16">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D17">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E17">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F17">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K17">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D18">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E18">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F18">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K18">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D19">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E19">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F19">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K19">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D20">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E20">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F20">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K20">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D21">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E21">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F21">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K21">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D22">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E22">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F22">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K22">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D23">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E23">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F23">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K23">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D24">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E24">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F24">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K24">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.18474127455163</v>
+        <v>12.18474127455177</v>
       </c>
       <c r="D25">
-        <v>14.93641558337868</v>
+        <v>14.93641558337902</v>
       </c>
       <c r="E25">
-        <v>22.63651972842372</v>
+        <v>22.63651972842401</v>
       </c>
       <c r="F25">
-        <v>88.66895891225752</v>
+        <v>88.66895891225933</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>112.1444543041748</v>
+        <v>112.1444543041757</v>
       </c>
       <c r="K25">
-        <v>14.1242567228786</v>
+        <v>14.12425672287877</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.04509040756511</v>
+        <v>13.04509040756519</v>
       </c>
       <c r="D2">
-        <v>16.58001746533405</v>
+        <v>16.58001746533426</v>
       </c>
       <c r="E2">
-        <v>24.30842788688464</v>
+        <v>24.30842788688475</v>
       </c>
       <c r="F2">
-        <v>96.87863404364792</v>
+        <v>96.8786340436486</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>118.4084522741736</v>
+        <v>118.4084522741739</v>
       </c>
       <c r="K2">
-        <v>15.1508053112457</v>
+        <v>15.15080531124575</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.99829310310197</v>
+        <v>10.99829310310204</v>
       </c>
       <c r="D3">
-        <v>12.80261397024396</v>
+        <v>12.80261397024395</v>
       </c>
       <c r="E3">
-        <v>20.3641010480255</v>
+        <v>20.36410104802558</v>
       </c>
       <c r="F3">
-        <v>77.82591992694219</v>
+        <v>77.82591992694283</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>103.0276868866968</v>
+        <v>103.0276868866971</v>
       </c>
       <c r="K3">
-        <v>12.73561925591496</v>
+        <v>12.73561925591499</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.08970785376751</v>
+        <v>10.08970785376759</v>
       </c>
       <c r="D4">
-        <v>11.27046967295522</v>
+        <v>11.27046967295542</v>
       </c>
       <c r="E4">
-        <v>18.6426750378448</v>
+        <v>18.64267503784492</v>
       </c>
       <c r="F4">
-        <v>69.91357488645554</v>
+        <v>69.91357488645615</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>95.71169285241041</v>
+        <v>95.71169285241072</v>
       </c>
       <c r="K4">
-        <v>11.6876683568113</v>
+        <v>11.68766835681139</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.748373910716904</v>
+        <v>9.748373910716834</v>
       </c>
       <c r="D5">
-        <v>10.71756221079169</v>
+        <v>10.71756221079159</v>
       </c>
       <c r="E5">
-        <v>17.99917463719919</v>
+        <v>17.99917463719914</v>
       </c>
       <c r="F5">
-        <v>67.03268956450525</v>
+        <v>67.0326895645052</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>92.89444281221468</v>
+        <v>92.89444281221456</v>
       </c>
       <c r="K5">
-        <v>11.29666508977654</v>
+        <v>11.2966650897765</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.692854406191319</v>
+        <v>9.692854406191268</v>
       </c>
       <c r="D6">
-        <v>10.62880246230218</v>
+        <v>10.62880246230235</v>
       </c>
       <c r="E6">
-        <v>17.89464804778867</v>
+        <v>17.89464804778872</v>
       </c>
       <c r="F6">
-        <v>66.56896911775718</v>
+        <v>66.56896911775796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>92.43279405290026</v>
+        <v>92.43279405290043</v>
       </c>
       <c r="K6">
-        <v>11.23318782992112</v>
+        <v>11.23318782992118</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.08501671696462</v>
+        <v>10.08501671696483</v>
       </c>
       <c r="D7">
-        <v>11.26278677586168</v>
+        <v>11.2627867758619</v>
       </c>
       <c r="E7">
-        <v>18.63382043192583</v>
+        <v>18.63382043192597</v>
       </c>
       <c r="F7">
-        <v>69.87363565261114</v>
+        <v>69.87363565261194</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>95.67322117741961</v>
+        <v>95.67322117742002</v>
       </c>
       <c r="K7">
-        <v>11.68228554835179</v>
+        <v>11.68228554835178</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D8">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E8">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F8">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K8">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D9">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E9">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F9">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K9">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D10">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E10">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F10">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K10">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D11">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E11">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F11">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K11">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D12">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E12">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F12">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K12">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D13">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E13">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F13">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K13">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D14">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E14">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F14">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K14">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D15">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E15">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F15">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K15">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D16">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E16">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F16">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K16">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D17">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E17">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F17">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K17">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D18">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E18">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F18">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K18">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D19">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E19">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F19">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K19">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D20">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E20">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F20">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K20">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D21">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E21">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F21">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K21">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D22">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E22">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F22">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K22">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D23">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E23">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F23">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K23">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D24">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E24">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F24">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K24">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.18474127455177</v>
+        <v>12.18474127455163</v>
       </c>
       <c r="D25">
-        <v>14.93641558337902</v>
+        <v>14.93641558337868</v>
       </c>
       <c r="E25">
-        <v>22.63651972842401</v>
+        <v>22.63651972842372</v>
       </c>
       <c r="F25">
-        <v>88.66895891225933</v>
+        <v>88.66895891225752</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>112.1444543041757</v>
+        <v>112.1444543041748</v>
       </c>
       <c r="K25">
-        <v>14.12425672287877</v>
+        <v>14.1242567228786</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.04509040756519</v>
+        <v>12.83501757792155</v>
       </c>
       <c r="D2">
-        <v>16.58001746533426</v>
+        <v>16.02152894196923</v>
       </c>
       <c r="E2">
-        <v>24.30842788688475</v>
+        <v>23.89484213855109</v>
       </c>
       <c r="F2">
-        <v>96.8786340436486</v>
+        <v>94.44876468543767</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.603719147009829</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>118.4084522741739</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.15080531124575</v>
+        <v>116.9340288164234</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>14.89698504047242</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.99829310310204</v>
+        <v>10.89944435608822</v>
       </c>
       <c r="D3">
-        <v>12.80261397024395</v>
+        <v>12.48910102870609</v>
       </c>
       <c r="E3">
-        <v>20.36410104802558</v>
+        <v>20.17448507034442</v>
       </c>
       <c r="F3">
-        <v>77.82591992694283</v>
+        <v>76.61508209782568</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.741545748622177</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>103.0276868866971</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.73561925591499</v>
+        <v>102.2660776354532</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.62103751070787</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.08970785376759</v>
+        <v>10.0113424994003</v>
       </c>
       <c r="D4">
-        <v>11.27046967295542</v>
+        <v>11.0067213125927</v>
       </c>
       <c r="E4">
-        <v>18.64267503784492</v>
+        <v>18.49353770102557</v>
       </c>
       <c r="F4">
-        <v>69.91357488645615</v>
+        <v>68.96145658432945</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.799691004884052</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>95.71169285241072</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.68766835681139</v>
+        <v>95.08780060406836</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.59817525800205</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.748373910716834</v>
+        <v>9.676020699910815</v>
       </c>
       <c r="D5">
-        <v>10.71756221079159</v>
+        <v>10.46961303334003</v>
       </c>
       <c r="E5">
-        <v>17.99917463719914</v>
+        <v>17.86181771677115</v>
       </c>
       <c r="F5">
-        <v>67.0326895645052</v>
+        <v>66.16365228473393</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.820835351754858</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>92.89444281221456</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.2966650897765</v>
+        <v>92.31210488987678</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.21446642197398</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.692854406191268</v>
+        <v>9.621414247235899</v>
       </c>
       <c r="D6">
-        <v>10.62880246230235</v>
+        <v>10.38332681705302</v>
       </c>
       <c r="E6">
-        <v>17.89464804778872</v>
+        <v>17.75907524757226</v>
       </c>
       <c r="F6">
-        <v>66.56896911775796</v>
+        <v>65.71296465760145</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.824237157119487</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>92.43279405290043</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.23318782992118</v>
+        <v>91.85682892576075</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.15209360387164</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.08501671696483</v>
+        <v>10.00673902516043</v>
       </c>
       <c r="D7">
-        <v>11.2627867758619</v>
+        <v>10.99926342066159</v>
       </c>
       <c r="E7">
-        <v>18.63382043192597</v>
+        <v>18.48485524798517</v>
       </c>
       <c r="F7">
-        <v>69.87363565261194</v>
+        <v>68.92269809267745</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.799984264582746</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>95.67322117742002</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.68228554835178</v>
+        <v>95.04993017043857</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.59289907021129</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D8">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E8">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F8">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D9">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E9">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F9">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D10">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E10">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F10">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D11">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E11">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F11">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D12">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E12">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F12">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D13">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E13">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F13">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D14">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E14">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F14">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D15">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E15">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F15">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D16">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E16">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F16">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D17">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E17">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F17">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D18">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E18">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F18">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D19">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E19">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F19">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D20">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E20">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F20">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D21">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E21">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F21">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D22">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E22">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F22">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D23">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E23">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F23">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D24">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E24">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F24">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.18474127455163</v>
+        <v>12.04056993934065</v>
       </c>
       <c r="D25">
-        <v>14.93641558337868</v>
+        <v>14.52118839977008</v>
       </c>
       <c r="E25">
-        <v>22.63651972842372</v>
+        <v>22.35618409721352</v>
       </c>
       <c r="F25">
-        <v>88.66895891225752</v>
+        <v>86.94404827456481</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.662163119686643</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>112.1444543041748</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>14.1242567228786</v>
+        <v>111.088631980523</v>
       </c>
       <c r="L25">
+        <v>13.95333931877559</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -424,158 +424,1124 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.510342719994046</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.947750190299898</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.16717969960299</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.24519851353794</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>17.05847627797105</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.166886023422591</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8.854495268639488</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.089540661086932</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.482804375204038</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>98.84839901522284</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.928460660517839</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.863686551002362</v>
+      </c>
+      <c r="D3">
+        <v>3.201855236658185</v>
+      </c>
+      <c r="E3">
+        <v>9.295537600359006</v>
+      </c>
+      <c r="F3">
+        <v>11.41441615694416</v>
+      </c>
+      <c r="G3">
+        <v>16.0455489967435</v>
+      </c>
+      <c r="H3">
+        <v>6.393138713381102</v>
+      </c>
+      <c r="I3">
+        <v>9.138493633365787</v>
+      </c>
+      <c r="J3">
+        <v>7.44032394443664</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7.797476361860414</v>
+      </c>
+      <c r="M3">
+        <v>91.62783495852503</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>9.990580914253165</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.097036060704918</v>
+      </c>
+      <c r="D4">
+        <v>3.362749688737438</v>
+      </c>
+      <c r="E4">
+        <v>8.764493676242719</v>
+      </c>
+      <c r="F4">
+        <v>11.65763198029604</v>
+      </c>
+      <c r="G4">
+        <v>15.58417179700897</v>
+      </c>
+      <c r="H4">
+        <v>6.555216712072806</v>
+      </c>
+      <c r="I4">
+        <v>9.395298701083092</v>
+      </c>
+      <c r="J4">
+        <v>7.034876094037067</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7.368847357511296</v>
+      </c>
+      <c r="M4">
+        <v>87.04127480307596</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10.1047060647316</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.194893672474452</v>
+      </c>
+      <c r="D5">
+        <v>3.429290901173566</v>
+      </c>
+      <c r="E5">
+        <v>8.548376758070864</v>
+      </c>
+      <c r="F5">
+        <v>11.78550661158451</v>
+      </c>
+      <c r="G5">
+        <v>15.43410712576217</v>
+      </c>
+      <c r="H5">
+        <v>6.626138015233932</v>
+      </c>
+      <c r="I5">
+        <v>9.516714174496073</v>
+      </c>
+      <c r="J5">
+        <v>6.867392136169171</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.191641571118414</v>
+      </c>
+      <c r="M5">
+        <v>85.12966345105608</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>10.16744956026616</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3.211283482588423</v>
+      </c>
+      <c r="D6">
+        <v>3.440394182732696</v>
+      </c>
+      <c r="E6">
+        <v>8.51248981640116</v>
+      </c>
+      <c r="F6">
+        <v>11.80830601186079</v>
+      </c>
+      <c r="G6">
+        <v>15.41139801735918</v>
+      </c>
+      <c r="H6">
+        <v>6.638184957816782</v>
+      </c>
+      <c r="I6">
+        <v>9.537785032541866</v>
+      </c>
+      <c r="J6">
+        <v>6.839430990061092</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7.162048926526761</v>
+      </c>
+      <c r="M6">
+        <v>84.80956738142966</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10.17876990777724</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3.098345871598294</v>
+      </c>
+      <c r="D7">
+        <v>3.363643366573845</v>
+      </c>
+      <c r="E7">
+        <v>8.761578733906521</v>
+      </c>
+      <c r="F7">
+        <v>11.6592479325665</v>
+      </c>
+      <c r="G7">
+        <v>15.58199797185663</v>
+      </c>
+      <c r="H7">
+        <v>6.556154552599796</v>
+      </c>
+      <c r="I7">
+        <v>9.396873007490527</v>
+      </c>
+      <c r="J7">
+        <v>7.032627146155397</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>7.366468438479504</v>
+      </c>
+      <c r="M7">
+        <v>87.01567124449871</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10.1054901068291</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.627678202220718</v>
+      </c>
+      <c r="D8">
+        <v>3.034151341404718</v>
+      </c>
+      <c r="E8">
+        <v>9.865253094933598</v>
+      </c>
+      <c r="F8">
+        <v>11.2707132993822</v>
+      </c>
+      <c r="G8">
+        <v>16.67461132395416</v>
+      </c>
+      <c r="H8">
+        <v>6.239448615605161</v>
+      </c>
+      <c r="I8">
+        <v>8.932716265789098</v>
+      </c>
+      <c r="J8">
+        <v>7.866744690235246</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8.247752243463738</v>
+      </c>
+      <c r="M8">
+        <v>96.38782581493928</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.932308556509591</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.433642857570341</v>
+      </c>
+      <c r="D9">
+        <v>2.466154377596767</v>
+      </c>
+      <c r="E9">
+        <v>12.11093164864224</v>
+      </c>
+      <c r="F9">
+        <v>12.39364675286639</v>
+      </c>
+      <c r="G9">
+        <v>20.66557162953954</v>
+      </c>
+      <c r="H9">
+        <v>5.858909316237257</v>
+      </c>
+      <c r="I9">
+        <v>9.623993967840551</v>
+      </c>
+      <c r="J9">
+        <v>9.480446769790644</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9.947210901572582</v>
+      </c>
+      <c r="M9">
+        <v>113.7908659530602</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>10.90054613775216</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3.256272512029722</v>
+      </c>
+      <c r="D10">
+        <v>3.038382558066137</v>
+      </c>
+      <c r="E10">
+        <v>13.91333821665782</v>
+      </c>
+      <c r="F10">
+        <v>15.10988585191349</v>
+      </c>
+      <c r="G10">
+        <v>24.52526068379182</v>
+      </c>
+      <c r="H10">
+        <v>5.932715046452026</v>
+      </c>
+      <c r="I10">
+        <v>11.80721736622139</v>
+      </c>
+      <c r="J10">
+        <v>10.71738807855693</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>11.2456253553943</v>
+      </c>
+      <c r="M10">
+        <v>126.463005079662</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.00997885237922</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3.711506158831483</v>
+      </c>
+      <c r="D11">
+        <v>3.343336801326971</v>
+      </c>
+      <c r="E11">
+        <v>14.80741942225846</v>
+      </c>
+      <c r="F11">
+        <v>16.57893223022757</v>
+      </c>
+      <c r="G11">
+        <v>26.5272918279096</v>
+      </c>
+      <c r="H11">
+        <v>6.40499408131242</v>
+      </c>
+      <c r="I11">
+        <v>12.93291150253188</v>
+      </c>
+      <c r="J11">
+        <v>11.31621165207454</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>11.87309821460655</v>
+      </c>
+      <c r="M11">
+        <v>132.3885347554686</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.08256760951802</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3.898001096401426</v>
+      </c>
+      <c r="D12">
+        <v>3.467445076572237</v>
+      </c>
+      <c r="E12">
+        <v>15.16269691847837</v>
+      </c>
+      <c r="F12">
+        <v>17.17640186137643</v>
+      </c>
+      <c r="G12">
+        <v>27.3314342107841</v>
+      </c>
+      <c r="H12">
+        <v>6.596234333216114</v>
+      </c>
+      <c r="I12">
+        <v>13.3842440665782</v>
+      </c>
+      <c r="J12">
+        <v>11.55180605833901</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>12.11979162815042</v>
+      </c>
+      <c r="M12">
+        <v>134.6825980546622</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>14.51062177145727</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3.857141741628966</v>
+      </c>
+      <c r="D13">
+        <v>3.440280454232677</v>
+      </c>
+      <c r="E13">
+        <v>15.0853016310634</v>
+      </c>
+      <c r="F13">
+        <v>17.04570584712331</v>
+      </c>
+      <c r="G13">
+        <v>27.15595093056795</v>
+      </c>
+      <c r="H13">
+        <v>6.554435121329605</v>
+      </c>
+      <c r="I13">
+        <v>13.28578412322183</v>
+      </c>
+      <c r="J13">
+        <v>11.50059165089646</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>12.06617225778001</v>
+      </c>
+      <c r="M13">
+        <v>134.1856864334223</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.41732758889689</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.726543382428495</v>
+      </c>
+      <c r="D14">
+        <v>3.353356271349135</v>
+      </c>
+      <c r="E14">
+        <v>14.83626574783331</v>
+      </c>
+      <c r="F14">
+        <v>16.62719571674285</v>
+      </c>
+      <c r="G14">
+        <v>26.59243983519973</v>
+      </c>
+      <c r="H14">
+        <v>6.420457923231929</v>
+      </c>
+      <c r="I14">
+        <v>12.96949102092355</v>
+      </c>
+      <c r="J14">
+        <v>11.33538849090159</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>11.89318195410687</v>
+      </c>
+      <c r="M14">
+        <v>132.5760494792246</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.11729941209282</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3.648500314417116</v>
+      </c>
+      <c r="D15">
+        <v>3.301327044544367</v>
+      </c>
+      <c r="E15">
+        <v>14.68613999910871</v>
+      </c>
+      <c r="F15">
+        <v>16.37653582214055</v>
+      </c>
+      <c r="G15">
+        <v>26.25370241584108</v>
+      </c>
+      <c r="H15">
+        <v>6.340113599698201</v>
+      </c>
+      <c r="I15">
+        <v>12.77926478337229</v>
+      </c>
+      <c r="J15">
+        <v>11.23549114243666</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>11.7885534029955</v>
+      </c>
+      <c r="M15">
+        <v>131.5977100536217</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13.9366039617539</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3.228310371498119</v>
+      </c>
+      <c r="D16">
+        <v>3.019509783234624</v>
+      </c>
+      <c r="E16">
+        <v>13.85684339800848</v>
+      </c>
+      <c r="F16">
+        <v>15.01910356673375</v>
+      </c>
+      <c r="G16">
+        <v>24.40013669791806</v>
+      </c>
+      <c r="H16">
+        <v>5.903409681741914</v>
+      </c>
+      <c r="I16">
+        <v>11.736743277213</v>
+      </c>
+      <c r="J16">
+        <v>10.67924780035517</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>11.2056376259498</v>
+      </c>
+      <c r="M16">
+        <v>126.080981519667</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>12.94256223240601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2.992358815197521</v>
+      </c>
+      <c r="D17">
+        <v>2.85923790002788</v>
+      </c>
+      <c r="E17">
+        <v>13.37044809203534</v>
+      </c>
+      <c r="F17">
+        <v>14.24996269889502</v>
+      </c>
+      <c r="G17">
+        <v>23.33173956002557</v>
+      </c>
+      <c r="H17">
+        <v>5.814166929670633</v>
+      </c>
+      <c r="I17">
+        <v>11.13427921477581</v>
+      </c>
+      <c r="J17">
+        <v>10.34929156790001</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10.8595777111971</v>
+      </c>
+      <c r="M17">
+        <v>122.7529168088747</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12.36472037636573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.864023357748847</v>
+      </c>
+      <c r="D18">
+        <v>2.771069963855868</v>
+      </c>
+      <c r="E18">
+        <v>13.09717741021316</v>
+      </c>
+      <c r="F18">
+        <v>13.82886877353269</v>
+      </c>
+      <c r="G18">
+        <v>22.73950537201551</v>
+      </c>
+      <c r="H18">
+        <v>5.813440274192052</v>
+      </c>
+      <c r="I18">
+        <v>10.79971601068934</v>
+      </c>
+      <c r="J18">
+        <v>10.16261728227704</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>10.66369315524585</v>
+      </c>
+      <c r="M18">
+        <v>120.8516654987063</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.04252334323871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2.821798685098692</v>
+      </c>
+      <c r="D19">
+        <v>2.741860744527414</v>
+      </c>
+      <c r="E19">
+        <v>13.00563245063592</v>
+      </c>
+      <c r="F19">
+        <v>13.68980268030568</v>
+      </c>
+      <c r="G19">
+        <v>22.54258791608661</v>
+      </c>
+      <c r="H19">
+        <v>5.81448076219415</v>
+      </c>
+      <c r="I19">
+        <v>10.68836825273613</v>
+      </c>
+      <c r="J19">
+        <v>10.09986477102778</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>10.59782780638125</v>
+      </c>
+      <c r="M19">
+        <v>120.2095551061204</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>11.93505773401368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3.016702102285612</v>
+      </c>
+      <c r="D20">
+        <v>2.875871673949617</v>
+      </c>
+      <c r="E20">
+        <v>13.42152028533497</v>
+      </c>
+      <c r="F20">
+        <v>14.32959714551167</v>
+      </c>
+      <c r="G20">
+        <v>23.44311011038825</v>
+      </c>
+      <c r="H20">
+        <v>5.814936100820188</v>
+      </c>
+      <c r="I20">
+        <v>11.19714351464417</v>
+      </c>
+      <c r="J20">
+        <v>10.38407403233717</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>10.89606820763847</v>
+      </c>
+      <c r="M20">
+        <v>123.1057025630844</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>12.42515057858708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3.764488261002196</v>
+      </c>
+      <c r="D21">
+        <v>3.378628688709882</v>
+      </c>
+      <c r="E21">
+        <v>14.90889375361254</v>
+      </c>
+      <c r="F21">
+        <v>16.74891363171853</v>
+      </c>
+      <c r="G21">
+        <v>26.75658667270496</v>
+      </c>
+      <c r="H21">
+        <v>6.459444374887445</v>
+      </c>
+      <c r="I21">
+        <v>13.06164473841415</v>
+      </c>
+      <c r="J21">
+        <v>11.38363308736814</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>11.94370535293059</v>
+      </c>
+      <c r="M21">
+        <v>133.0471797261245</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.20476716506132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4.338782143730848</v>
+      </c>
+      <c r="D22">
+        <v>3.759895627537025</v>
+      </c>
+      <c r="E22">
+        <v>15.98449990992743</v>
+      </c>
+      <c r="F22">
+        <v>18.57910899295047</v>
+      </c>
+      <c r="G22">
+        <v>29.20189692033115</v>
+      </c>
+      <c r="H22">
+        <v>7.043791844118462</v>
+      </c>
+      <c r="I22">
+        <v>14.43288452300128</v>
+      </c>
+      <c r="J22">
+        <v>12.09206068571154</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>12.68516995685782</v>
+      </c>
+      <c r="M22">
+        <v>139.8644977300771</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.50144599976486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>4.022870626035357</v>
+      </c>
+      <c r="D23">
+        <v>3.55038937221305</v>
+      </c>
+      <c r="E23">
+        <v>15.39782549010837</v>
+      </c>
+      <c r="F23">
+        <v>17.57511663853175</v>
+      </c>
+      <c r="G23">
+        <v>27.86542555355752</v>
+      </c>
+      <c r="H23">
+        <v>6.723640908191622</v>
+      </c>
+      <c r="I23">
+        <v>13.68375977351992</v>
+      </c>
+      <c r="J23">
+        <v>11.70703468543384</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>12.28228405481029</v>
+      </c>
+      <c r="M23">
+        <v>136.1826866839181</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>14.79413564782666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3.005673860554461</v>
+      </c>
+      <c r="D24">
+        <v>2.868339307820142</v>
+      </c>
+      <c r="E24">
+        <v>13.39841112097641</v>
+      </c>
+      <c r="F24">
+        <v>14.29352918112168</v>
+      </c>
+      <c r="G24">
+        <v>23.39269163892974</v>
+      </c>
+      <c r="H24">
+        <v>5.814563467240565</v>
+      </c>
+      <c r="I24">
+        <v>11.16868619125764</v>
+      </c>
+      <c r="J24">
+        <v>10.36833970731449</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>10.87956154192134</v>
+      </c>
+      <c r="M24">
+        <v>122.9461722253316</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12.39779926528185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.19641741754651</v>
+      </c>
+      <c r="D25">
+        <v>2.597146812334193</v>
+      </c>
+      <c r="E25">
+        <v>11.48639380195701</v>
+      </c>
+      <c r="F25">
+        <v>11.57286017081835</v>
+      </c>
+      <c r="G25">
+        <v>19.41985852844022</v>
+      </c>
+      <c r="H25">
+        <v>5.926785861229331</v>
+      </c>
+      <c r="I25">
+        <v>8.914216289573352</v>
+      </c>
+      <c r="J25">
+        <v>9.04089896244504</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.48497384954984</v>
+      </c>
+      <c r="M25">
+        <v>109.1475654092789</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.20082716675851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.510342719994046</v>
+        <v>8.93309423163338</v>
       </c>
       <c r="D2">
-        <v>2.947750190299898</v>
+        <v>8.148153864499756</v>
       </c>
       <c r="E2">
-        <v>10.16717969960299</v>
+        <v>12.5708367331005</v>
       </c>
       <c r="F2">
-        <v>11.24519851353794</v>
+        <v>29.12342893346305</v>
       </c>
       <c r="G2">
-        <v>17.05847627797105</v>
+        <v>30.10333526103014</v>
       </c>
       <c r="H2">
-        <v>6.166886023422591</v>
+        <v>14.7329636641907</v>
       </c>
       <c r="I2">
-        <v>8.854495268639488</v>
+        <v>23.15210226019871</v>
       </c>
       <c r="J2">
-        <v>8.089540661086932</v>
+        <v>9.514435860272796</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.482804375204038</v>
+        <v>9.754485261953725</v>
       </c>
       <c r="M2">
-        <v>98.84839901522284</v>
+        <v>59.77304688006132</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.928460660517839</v>
+        <v>22.58507632388758</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.863686551002362</v>
+        <v>9.051328042029457</v>
       </c>
       <c r="D3">
-        <v>3.201855236658185</v>
+        <v>8.227226711303633</v>
       </c>
       <c r="E3">
-        <v>9.295537600359006</v>
+        <v>12.61445115287429</v>
       </c>
       <c r="F3">
-        <v>11.41441615694416</v>
+        <v>29.51530660825306</v>
       </c>
       <c r="G3">
-        <v>16.0455489967435</v>
+        <v>30.51694268806513</v>
       </c>
       <c r="H3">
-        <v>6.393138713381102</v>
+        <v>14.86362221334477</v>
       </c>
       <c r="I3">
-        <v>9.138493633365787</v>
+        <v>23.43330033730727</v>
       </c>
       <c r="J3">
-        <v>7.44032394443664</v>
+        <v>9.544634348360713</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.797476361860414</v>
+        <v>9.77079496311832</v>
       </c>
       <c r="M3">
-        <v>91.62783495852503</v>
+        <v>56.35621862236447</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.990580914253165</v>
+        <v>22.83321332009884</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.097036060704918</v>
+        <v>9.126803405203672</v>
       </c>
       <c r="D4">
-        <v>3.362749688737438</v>
+        <v>8.277750074019325</v>
       </c>
       <c r="E4">
-        <v>8.764493676242719</v>
+        <v>12.64623632790727</v>
       </c>
       <c r="F4">
-        <v>11.65763198029604</v>
+        <v>29.76818166981928</v>
       </c>
       <c r="G4">
-        <v>15.58417179700897</v>
+        <v>30.78911310573458</v>
       </c>
       <c r="H4">
-        <v>6.555216712072806</v>
+        <v>14.94791086018614</v>
       </c>
       <c r="I4">
-        <v>9.395298701083092</v>
+        <v>23.61456701396926</v>
       </c>
       <c r="J4">
-        <v>7.034876094037067</v>
+        <v>9.566001921399087</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.368847357511296</v>
+        <v>9.783710905364526</v>
       </c>
       <c r="M4">
-        <v>87.04127480307596</v>
+        <v>54.13913652609128</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.1047060647316</v>
+        <v>22.99417312831751</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.194893672474452</v>
+        <v>9.158287105408176</v>
       </c>
       <c r="D5">
-        <v>3.429290901173566</v>
+        <v>8.298836734785755</v>
       </c>
       <c r="E5">
-        <v>8.548376758070864</v>
+        <v>12.66043011866964</v>
       </c>
       <c r="F5">
-        <v>11.78550661158451</v>
+        <v>29.87429484375665</v>
       </c>
       <c r="G5">
-        <v>15.43410712576217</v>
+        <v>30.90452448674829</v>
       </c>
       <c r="H5">
-        <v>6.626138015233932</v>
+        <v>14.98327869392542</v>
       </c>
       <c r="I5">
-        <v>9.516714174496073</v>
+        <v>23.69059033866465</v>
       </c>
       <c r="J5">
-        <v>6.867392136169171</v>
+        <v>9.575412904466923</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.191641571118414</v>
+        <v>9.789697469629031</v>
       </c>
       <c r="M5">
-        <v>85.12966345105608</v>
+        <v>53.20595263876976</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.16744956026616</v>
+        <v>23.06191318371205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.211283482588423</v>
+        <v>9.163558934847908</v>
       </c>
       <c r="D6">
-        <v>3.440394182732696</v>
+        <v>8.302368294593837</v>
       </c>
       <c r="E6">
-        <v>8.51248981640116</v>
+        <v>12.66286143249739</v>
       </c>
       <c r="F6">
-        <v>11.80830601186079</v>
+        <v>29.89209942820638</v>
       </c>
       <c r="G6">
-        <v>15.41139801735918</v>
+        <v>30.9239579539175</v>
       </c>
       <c r="H6">
-        <v>6.638184957816782</v>
+        <v>14.98921300655662</v>
       </c>
       <c r="I6">
-        <v>9.537785032541866</v>
+        <v>23.70334388986851</v>
       </c>
       <c r="J6">
-        <v>6.839430990061092</v>
+        <v>9.577017880885776</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.162048926526761</v>
+        <v>9.790735026397586</v>
       </c>
       <c r="M6">
-        <v>84.80956738142966</v>
+        <v>53.04921302170159</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.17876990777724</v>
+        <v>23.07329063805477</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.098345871598294</v>
+        <v>9.127225058497682</v>
       </c>
       <c r="D7">
-        <v>3.363643366573845</v>
+        <v>8.278032437105621</v>
       </c>
       <c r="E7">
-        <v>8.761578733906521</v>
+        <v>12.64642274841545</v>
       </c>
       <c r="F7">
-        <v>11.6592479325665</v>
+        <v>29.76960036445092</v>
       </c>
       <c r="G7">
-        <v>15.58199797185663</v>
+        <v>30.79065146803321</v>
       </c>
       <c r="H7">
-        <v>6.556154552599796</v>
+        <v>14.9483837181033</v>
       </c>
       <c r="I7">
-        <v>9.396873007490527</v>
+        <v>23.61558357467132</v>
       </c>
       <c r="J7">
-        <v>7.032627146155397</v>
+        <v>9.566126001765184</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.366468438479504</v>
+        <v>9.783788722480354</v>
       </c>
       <c r="M7">
-        <v>87.01567124449871</v>
+        <v>54.12667116461887</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.1054901068291</v>
+        <v>22.99507801871776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.627678202220718</v>
+        <v>8.973265372355829</v>
       </c>
       <c r="D8">
-        <v>3.034151341404718</v>
+        <v>8.175010060740711</v>
       </c>
       <c r="E8">
-        <v>9.865253094933598</v>
+        <v>12.58482534959716</v>
       </c>
       <c r="F8">
-        <v>11.2707132993822</v>
+        <v>29.25599221145439</v>
       </c>
       <c r="G8">
-        <v>16.67461132395416</v>
+        <v>30.24211742566301</v>
       </c>
       <c r="H8">
-        <v>6.239448615605161</v>
+        <v>14.77716986465094</v>
       </c>
       <c r="I8">
-        <v>8.932716265789098</v>
+        <v>23.2472665851873</v>
       </c>
       <c r="J8">
-        <v>7.866744690235246</v>
+        <v>9.52425759163067</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.247752243463738</v>
+        <v>9.759502701996887</v>
       </c>
       <c r="M8">
-        <v>96.38782581493928</v>
+        <v>58.61977918210538</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.932308556509591</v>
+        <v>22.66883888841021</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.433642857570341</v>
+        <v>8.694063900761225</v>
       </c>
       <c r="D9">
-        <v>2.466154377596767</v>
+        <v>7.988537631555161</v>
       </c>
       <c r="E9">
-        <v>12.11093164864224</v>
+        <v>12.50455442233004</v>
       </c>
       <c r="F9">
-        <v>12.39364675286639</v>
+        <v>28.34696940436285</v>
       </c>
       <c r="G9">
-        <v>20.66557162953954</v>
+        <v>29.31474182216143</v>
       </c>
       <c r="H9">
-        <v>5.858909316237257</v>
+        <v>14.47377014838336</v>
       </c>
       <c r="I9">
-        <v>9.623993967840551</v>
+        <v>22.5937540634107</v>
       </c>
       <c r="J9">
-        <v>9.480446769790644</v>
+        <v>9.464896458834783</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.947210901572582</v>
+        <v>9.735194731728592</v>
       </c>
       <c r="M9">
-        <v>113.7908659530602</v>
+        <v>66.47800570293771</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.90054613775216</v>
+        <v>22.09807234276285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.256272512029722</v>
+        <v>8.502591253743331</v>
       </c>
       <c r="D10">
-        <v>3.038382558066137</v>
+        <v>7.86088150428598</v>
       </c>
       <c r="E10">
-        <v>13.91333821665782</v>
+        <v>12.471398990931</v>
       </c>
       <c r="F10">
-        <v>15.10988585191349</v>
+        <v>27.74025206338901</v>
       </c>
       <c r="G10">
-        <v>24.52526068379182</v>
+        <v>28.72929155757689</v>
       </c>
       <c r="H10">
-        <v>5.932715046452026</v>
+        <v>14.2707331766855</v>
       </c>
       <c r="I10">
-        <v>11.80721736622139</v>
+        <v>22.15617919154093</v>
       </c>
       <c r="J10">
-        <v>10.71738807855693</v>
+        <v>9.435605859499177</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.2456253553943</v>
+        <v>9.731957780433959</v>
       </c>
       <c r="M10">
-        <v>126.463005079662</v>
+        <v>71.66474567775207</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.00997885237922</v>
+        <v>21.72184172484331</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.711506158831483</v>
+        <v>8.418410724996233</v>
       </c>
       <c r="D11">
-        <v>3.343336801326971</v>
+        <v>7.80480704646756</v>
       </c>
       <c r="E11">
-        <v>14.80741942225846</v>
+        <v>12.46216503014899</v>
       </c>
       <c r="F11">
-        <v>16.57893223022757</v>
+        <v>27.47783700747057</v>
       </c>
       <c r="G11">
-        <v>26.5272918279096</v>
+        <v>28.485059117939</v>
       </c>
       <c r="H11">
-        <v>6.40499408131242</v>
+        <v>14.18271743546371</v>
       </c>
       <c r="I11">
-        <v>12.93291150253188</v>
+        <v>21.96651584558492</v>
       </c>
       <c r="J11">
-        <v>11.31621165207454</v>
+        <v>9.425492684474611</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.87309821460655</v>
+        <v>9.733748223920397</v>
       </c>
       <c r="M11">
-        <v>132.3885347554686</v>
+        <v>73.89658839914628</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.08256760951802</v>
+        <v>21.56029593830913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.898001096401426</v>
+        <v>8.386950945078601</v>
       </c>
       <c r="D12">
-        <v>3.467445076572237</v>
+        <v>7.783858049571767</v>
       </c>
       <c r="E12">
-        <v>15.16269691847837</v>
+        <v>12.45952940656311</v>
       </c>
       <c r="F12">
-        <v>17.17640186137643</v>
+        <v>27.38045115580831</v>
       </c>
       <c r="G12">
-        <v>27.3314342107841</v>
+        <v>28.3958653640111</v>
       </c>
       <c r="H12">
-        <v>6.596234333216114</v>
+        <v>14.15001687555614</v>
       </c>
       <c r="I12">
-        <v>13.3842440665782</v>
+        <v>21.8960612347366</v>
       </c>
       <c r="J12">
-        <v>11.55180605833901</v>
+        <v>9.422133456422188</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.11979162815042</v>
+        <v>9.734902559786031</v>
       </c>
       <c r="M12">
-        <v>134.6825980546622</v>
+        <v>74.72338469894365</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.51062177145727</v>
+        <v>21.50052668312501</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.857141741628966</v>
+        <v>8.393707839691022</v>
       </c>
       <c r="D13">
-        <v>3.440280454232677</v>
+        <v>7.788357138555019</v>
       </c>
       <c r="E13">
-        <v>15.0853016310634</v>
+        <v>12.46005841876436</v>
       </c>
       <c r="F13">
-        <v>17.04570584712331</v>
+        <v>27.4013361221887</v>
       </c>
       <c r="G13">
-        <v>27.15595093056795</v>
+        <v>28.41492653879698</v>
       </c>
       <c r="H13">
-        <v>6.554435121329605</v>
+        <v>14.1570314798796</v>
       </c>
       <c r="I13">
-        <v>13.28578412322183</v>
+        <v>21.91117383367515</v>
       </c>
       <c r="J13">
-        <v>11.50059165089646</v>
+        <v>9.422835865259964</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.06617225778001</v>
+        <v>9.734632654423915</v>
       </c>
       <c r="M13">
-        <v>134.1856864334223</v>
+        <v>74.5461353678147</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.41732758889689</v>
+        <v>21.51333619748298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.726543382428495</v>
+        <v>8.415814155618918</v>
       </c>
       <c r="D14">
-        <v>3.353356271349135</v>
+        <v>7.803077855671272</v>
       </c>
       <c r="E14">
-        <v>14.83626574783331</v>
+        <v>12.46193082355665</v>
       </c>
       <c r="F14">
-        <v>16.62719571674285</v>
+        <v>27.46978504048097</v>
       </c>
       <c r="G14">
-        <v>26.59243983519973</v>
+        <v>28.47765444269281</v>
       </c>
       <c r="H14">
-        <v>6.420457923231929</v>
+        <v>14.18001450868774</v>
       </c>
       <c r="I14">
-        <v>12.96949102092355</v>
+        <v>21.96069201186824</v>
       </c>
       <c r="J14">
-        <v>11.33538849090159</v>
+        <v>9.425206840973905</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.89318195410687</v>
+        <v>9.733833604634887</v>
       </c>
       <c r="M14">
-        <v>132.5760494792246</v>
+        <v>73.96497718526585</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.11729941209282</v>
+        <v>21.55535039401028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.648500314417116</v>
+        <v>8.429409217612365</v>
       </c>
       <c r="D15">
-        <v>3.301327044544367</v>
+        <v>7.812131800850697</v>
       </c>
       <c r="E15">
-        <v>14.68613999910871</v>
+        <v>12.46319045921808</v>
       </c>
       <c r="F15">
-        <v>16.37653582214055</v>
+        <v>27.51197147717689</v>
       </c>
       <c r="G15">
-        <v>26.25370241584108</v>
+        <v>28.51650929354571</v>
       </c>
       <c r="H15">
-        <v>6.340113599698201</v>
+        <v>14.19417432829696</v>
       </c>
       <c r="I15">
-        <v>12.77926478337229</v>
+        <v>21.99120182790085</v>
       </c>
       <c r="J15">
-        <v>11.23549114243666</v>
+        <v>9.426720652744939</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.7885534029955</v>
+        <v>9.733406407627788</v>
       </c>
       <c r="M15">
-        <v>131.5977100536217</v>
+        <v>73.60661118860278</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.9366039617539</v>
+        <v>21.58126895454309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.228310371498119</v>
+        <v>8.508151216058653</v>
       </c>
       <c r="D16">
-        <v>3.019509783234624</v>
+        <v>7.86458611648352</v>
       </c>
       <c r="E16">
-        <v>13.85684339800848</v>
+        <v>12.4721218538475</v>
       </c>
       <c r="F16">
-        <v>15.01910356673375</v>
+        <v>27.75767749298921</v>
       </c>
       <c r="G16">
-        <v>24.40013669791806</v>
+        <v>28.74570696258457</v>
       </c>
       <c r="H16">
-        <v>5.903409681741914</v>
+        <v>14.27657301849619</v>
       </c>
       <c r="I16">
-        <v>11.736743277213</v>
+        <v>22.1687644810589</v>
       </c>
       <c r="J16">
-        <v>10.67924780035517</v>
+        <v>9.436332132408854</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.2056376259498</v>
+        <v>9.731907038821522</v>
       </c>
       <c r="M16">
-        <v>126.080981519667</v>
+        <v>71.51632055839823</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.94256223240601</v>
+        <v>21.73259435660255</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.992358815197521</v>
+        <v>8.557203280822776</v>
       </c>
       <c r="D17">
-        <v>2.85923790002788</v>
+        <v>7.89727519678576</v>
       </c>
       <c r="E17">
-        <v>13.37044809203534</v>
+        <v>12.47911319220721</v>
       </c>
       <c r="F17">
-        <v>14.24996269889502</v>
+        <v>27.91191101066365</v>
       </c>
       <c r="G17">
-        <v>23.33173956002557</v>
+        <v>28.89205053021409</v>
       </c>
       <c r="H17">
-        <v>5.814166929670633</v>
+        <v>14.32823803706641</v>
       </c>
       <c r="I17">
-        <v>11.13427921477581</v>
+        <v>22.28010999348311</v>
       </c>
       <c r="J17">
-        <v>10.34929156790001</v>
+        <v>9.443057035454936</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.8595777111971</v>
+        <v>9.731828014996706</v>
       </c>
       <c r="M17">
-        <v>122.7529168088747</v>
+        <v>70.20129630965175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.36472037636573</v>
+        <v>21.82790362874411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.864023357748847</v>
+        <v>8.585691847469402</v>
       </c>
       <c r="D18">
-        <v>2.771069963855868</v>
+        <v>7.91626517151348</v>
       </c>
       <c r="E18">
-        <v>13.09717741021316</v>
+        <v>12.48368371987857</v>
       </c>
       <c r="F18">
-        <v>13.82886877353269</v>
+        <v>28.00189855861769</v>
       </c>
       <c r="G18">
-        <v>22.73950537201551</v>
+        <v>28.9782956309637</v>
       </c>
       <c r="H18">
-        <v>5.813440274192052</v>
+        <v>14.35836327209901</v>
       </c>
       <c r="I18">
-        <v>10.79971601068934</v>
+        <v>22.34503592062994</v>
       </c>
       <c r="J18">
-        <v>10.16261728227704</v>
+        <v>9.447226754109527</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.66369315524585</v>
+        <v>9.732089260935416</v>
       </c>
       <c r="M18">
-        <v>120.8516654987063</v>
+        <v>69.4329140502511</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.04252334323871</v>
+        <v>21.88362541591584</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.821798685098692</v>
+        <v>8.595384916387863</v>
       </c>
       <c r="D19">
-        <v>2.741860744527414</v>
+        <v>7.9227272139875</v>
       </c>
       <c r="E19">
-        <v>13.00563245063592</v>
+        <v>12.48532495358395</v>
       </c>
       <c r="F19">
-        <v>13.68980268030568</v>
+        <v>28.03258511442542</v>
       </c>
       <c r="G19">
-        <v>22.54258791608661</v>
+        <v>29.00784922499054</v>
       </c>
       <c r="H19">
-        <v>5.81448076219415</v>
+        <v>14.36863326700803</v>
       </c>
       <c r="I19">
-        <v>10.68836825273613</v>
+        <v>22.36716989477826</v>
       </c>
       <c r="J19">
-        <v>10.09986477102778</v>
+        <v>9.448690111494038</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.59782780638125</v>
+        <v>9.732230172660095</v>
       </c>
       <c r="M19">
-        <v>120.2095551061204</v>
+        <v>69.17068988266817</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.93505773401368</v>
+        <v>21.90264614873431</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.016702102285612</v>
+        <v>8.551953149903198</v>
       </c>
       <c r="D20">
-        <v>2.875871673949617</v>
+        <v>7.893775937167836</v>
       </c>
       <c r="E20">
-        <v>13.42152028533497</v>
+        <v>12.4783119573443</v>
       </c>
       <c r="F20">
-        <v>14.32959714551167</v>
+        <v>27.89536025460466</v>
       </c>
       <c r="G20">
-        <v>23.44311011038825</v>
+        <v>28.87625673351738</v>
       </c>
       <c r="H20">
-        <v>5.814936100820188</v>
+        <v>14.32269586161623</v>
       </c>
       <c r="I20">
-        <v>11.19714351464417</v>
+        <v>22.26816557991492</v>
       </c>
       <c r="J20">
-        <v>10.38407403233717</v>
+        <v>9.442309867914638</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.89606820763847</v>
+        <v>9.731804633496472</v>
       </c>
       <c r="M20">
-        <v>123.1057025630844</v>
+        <v>70.34252649159779</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.42515057858708</v>
+        <v>21.81766423083812</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.764488261002196</v>
+        <v>8.40930968194335</v>
       </c>
       <c r="D21">
-        <v>3.378628688709882</v>
+        <v>7.798746300065725</v>
       </c>
       <c r="E21">
-        <v>14.90889375361254</v>
+        <v>12.46135732336385</v>
       </c>
       <c r="F21">
-        <v>16.74891363171853</v>
+        <v>27.44962579426481</v>
       </c>
       <c r="G21">
-        <v>26.75658667270496</v>
+        <v>28.45913945342511</v>
       </c>
       <c r="H21">
-        <v>6.459444374887445</v>
+        <v>14.17324672904186</v>
       </c>
       <c r="I21">
-        <v>13.06164473841415</v>
+        <v>21.94611009182468</v>
       </c>
       <c r="J21">
-        <v>11.38363308736814</v>
+        <v>9.424497591382803</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.94370535293059</v>
+        <v>9.734055320567316</v>
       </c>
       <c r="M21">
-        <v>133.0471797261245</v>
+        <v>74.13617543549145</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.20476716506132</v>
+        <v>21.54297148870851</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.338782143730848</v>
+        <v>8.318516686934839</v>
       </c>
       <c r="D22">
-        <v>3.759895627537025</v>
+        <v>7.738300302743749</v>
       </c>
       <c r="E22">
-        <v>15.98449990992743</v>
+        <v>12.45530483933856</v>
       </c>
       <c r="F22">
-        <v>18.57910899295047</v>
+        <v>27.16989957904241</v>
       </c>
       <c r="G22">
-        <v>29.20189692033115</v>
+        <v>28.20577370952011</v>
       </c>
       <c r="H22">
-        <v>7.043791844118462</v>
+        <v>14.07924199537758</v>
       </c>
       <c r="I22">
-        <v>14.43288452300128</v>
+        <v>21.7436034419398</v>
       </c>
       <c r="J22">
-        <v>12.09206068571154</v>
+        <v>9.415602287219414</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.68516995685782</v>
+        <v>9.738306014411275</v>
       </c>
       <c r="M22">
-        <v>139.8644977300771</v>
+        <v>76.50857939595542</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.50144599976486</v>
+        <v>21.37164322512832</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.022870626035357</v>
+        <v>8.366752827820937</v>
       </c>
       <c r="D23">
-        <v>3.55038937221305</v>
+        <v>7.770410102065719</v>
       </c>
       <c r="E23">
-        <v>15.39782549010837</v>
+        <v>12.45806843204417</v>
       </c>
       <c r="F23">
-        <v>17.57511663853175</v>
+        <v>27.31812330909714</v>
       </c>
       <c r="G23">
-        <v>27.86542555355752</v>
+        <v>28.33919937919181</v>
       </c>
       <c r="H23">
-        <v>6.723640908191622</v>
+        <v>14.12907697465247</v>
       </c>
       <c r="I23">
-        <v>13.68375977351992</v>
+        <v>21.85094957080423</v>
       </c>
       <c r="J23">
-        <v>11.70703468543384</v>
+        <v>9.420095717242063</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.28228405481029</v>
+        <v>9.735780639841735</v>
       </c>
       <c r="M23">
-        <v>136.1826866839181</v>
+        <v>75.25216389195651</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.79413564782666</v>
+        <v>21.46232588934065</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.005673860554461</v>
+        <v>8.554325837214286</v>
       </c>
       <c r="D24">
-        <v>2.868339307820142</v>
+        <v>7.895357339966688</v>
       </c>
       <c r="E24">
-        <v>13.39841112097641</v>
+        <v>12.47867248054698</v>
       </c>
       <c r="F24">
-        <v>14.29352918112168</v>
+        <v>27.90283875273307</v>
       </c>
       <c r="G24">
-        <v>23.39269163892974</v>
+        <v>28.88339054473035</v>
       </c>
       <c r="H24">
-        <v>5.814563467240565</v>
+        <v>14.32520016398225</v>
       </c>
       <c r="I24">
-        <v>11.16868619125764</v>
+        <v>22.27356281011127</v>
       </c>
       <c r="J24">
-        <v>10.36833970731449</v>
+        <v>9.442646717732085</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.87956154192134</v>
+        <v>9.731814249579731</v>
       </c>
       <c r="M24">
-        <v>122.9461722253316</v>
+        <v>70.27871481623421</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.39779926528185</v>
+        <v>21.82229057633097</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.19641741754651</v>
+        <v>8.767183469788721</v>
       </c>
       <c r="D25">
-        <v>2.597146812334193</v>
+        <v>8.037332345340952</v>
       </c>
       <c r="E25">
-        <v>11.48639380195701</v>
+        <v>12.52181707899993</v>
       </c>
       <c r="F25">
-        <v>11.57286017081835</v>
+        <v>28.58224822644983</v>
       </c>
       <c r="G25">
-        <v>19.41985852844022</v>
+        <v>29.54919732036213</v>
       </c>
       <c r="H25">
-        <v>5.926785861229331</v>
+        <v>14.55236987490627</v>
       </c>
       <c r="I25">
-        <v>8.914216289573352</v>
+        <v>22.76312271797652</v>
       </c>
       <c r="J25">
-        <v>9.04089896244504</v>
+        <v>9.478473892018654</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.48497384954984</v>
+        <v>9.739232424882939</v>
       </c>
       <c r="M25">
-        <v>109.1475654092789</v>
+        <v>64.45493694816959</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.20082716675851</v>
+        <v>22.24498947289688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.93309423163338</v>
+        <v>2.510342719994349</v>
       </c>
       <c r="D2">
-        <v>8.148153864499756</v>
+        <v>2.947750190299923</v>
       </c>
       <c r="E2">
-        <v>12.5708367331005</v>
+        <v>10.16717969960305</v>
       </c>
       <c r="F2">
-        <v>29.12342893346305</v>
+        <v>11.24519851353785</v>
       </c>
       <c r="G2">
-        <v>30.10333526103014</v>
+        <v>17.05847627797103</v>
       </c>
       <c r="H2">
-        <v>14.7329636641907</v>
+        <v>6.166886023422538</v>
       </c>
       <c r="I2">
-        <v>23.15210226019871</v>
+        <v>8.854495268639448</v>
       </c>
       <c r="J2">
-        <v>9.514435860272796</v>
+        <v>8.089540661086925</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.754485261953725</v>
+        <v>8.482804375204097</v>
       </c>
       <c r="M2">
-        <v>59.77304688006132</v>
+        <v>98.84839901522294</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.58507632388758</v>
+        <v>9.928460660517775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.051328042029457</v>
+        <v>2.863686551002333</v>
       </c>
       <c r="D3">
-        <v>8.227226711303633</v>
+        <v>3.201855236658167</v>
       </c>
       <c r="E3">
-        <v>12.61445115287429</v>
+        <v>9.295537600358902</v>
       </c>
       <c r="F3">
-        <v>29.51530660825306</v>
+        <v>11.41441615694433</v>
       </c>
       <c r="G3">
-        <v>30.51694268806513</v>
+        <v>16.04554899674358</v>
       </c>
       <c r="H3">
-        <v>14.86362221334477</v>
+        <v>6.393138713381161</v>
       </c>
       <c r="I3">
-        <v>23.43330033730727</v>
+        <v>9.138493633365954</v>
       </c>
       <c r="J3">
-        <v>9.544634348360713</v>
+        <v>7.440323944436559</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.77079496311832</v>
+        <v>7.797476361860372</v>
       </c>
       <c r="M3">
-        <v>56.35621862236447</v>
+        <v>91.62783495852487</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.83321332009884</v>
+        <v>9.990580914253272</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.126803405203672</v>
+        <v>3.097036060704927</v>
       </c>
       <c r="D4">
-        <v>8.277750074019325</v>
+        <v>3.362749688737374</v>
       </c>
       <c r="E4">
-        <v>12.64623632790727</v>
+        <v>8.764493676242697</v>
       </c>
       <c r="F4">
-        <v>29.76818166981928</v>
+        <v>11.65763198029599</v>
       </c>
       <c r="G4">
-        <v>30.78911310573458</v>
+        <v>15.584171797009</v>
       </c>
       <c r="H4">
-        <v>14.94791086018614</v>
+        <v>6.555216712072816</v>
       </c>
       <c r="I4">
-        <v>23.61456701396926</v>
+        <v>9.395298701083087</v>
       </c>
       <c r="J4">
-        <v>9.566001921399087</v>
+        <v>7.03487609403703</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.783710905364526</v>
+        <v>7.368847357511288</v>
       </c>
       <c r="M4">
-        <v>54.13913652609128</v>
+        <v>87.04127480307572</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.99417312831751</v>
+        <v>10.10470606473161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.158287105408176</v>
+        <v>3.194893672474327</v>
       </c>
       <c r="D5">
-        <v>8.298836734785755</v>
+        <v>3.429290901173486</v>
       </c>
       <c r="E5">
-        <v>12.66043011866964</v>
+        <v>8.548376758070802</v>
       </c>
       <c r="F5">
-        <v>29.87429484375665</v>
+        <v>11.78550661158458</v>
       </c>
       <c r="G5">
-        <v>30.90452448674829</v>
+        <v>15.43410712576221</v>
       </c>
       <c r="H5">
-        <v>14.98327869392542</v>
+        <v>6.626138015234003</v>
       </c>
       <c r="I5">
-        <v>23.69059033866465</v>
+        <v>9.516714174496119</v>
       </c>
       <c r="J5">
-        <v>9.575412904466923</v>
+        <v>6.86739213616911</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.789697469629031</v>
+        <v>7.19164157111834</v>
       </c>
       <c r="M5">
-        <v>53.20595263876976</v>
+        <v>85.12966345105578</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.06191318371205</v>
+        <v>10.16744956026627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.163558934847908</v>
+        <v>3.211283482588431</v>
       </c>
       <c r="D6">
-        <v>8.302368294593837</v>
+        <v>3.44039418273282</v>
       </c>
       <c r="E6">
-        <v>12.66286143249739</v>
+        <v>8.512489816401159</v>
       </c>
       <c r="F6">
-        <v>29.89209942820638</v>
+        <v>11.8083060118608</v>
       </c>
       <c r="G6">
-        <v>30.9239579539175</v>
+        <v>15.41139801735916</v>
       </c>
       <c r="H6">
-        <v>14.98921300655662</v>
+        <v>6.638184957816764</v>
       </c>
       <c r="I6">
-        <v>23.70334388986851</v>
+        <v>9.537785032541841</v>
       </c>
       <c r="J6">
-        <v>9.577017880885776</v>
+        <v>6.839430990061099</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.790735026397586</v>
+        <v>7.162048926526731</v>
       </c>
       <c r="M6">
-        <v>53.04921302170159</v>
+        <v>84.80956738142987</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.07329063805477</v>
+        <v>10.17876990777722</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.127225058497682</v>
+        <v>3.098345871598178</v>
       </c>
       <c r="D7">
-        <v>8.278032437105621</v>
+        <v>3.363643366573731</v>
       </c>
       <c r="E7">
-        <v>12.64642274841545</v>
+        <v>8.761578733906557</v>
       </c>
       <c r="F7">
-        <v>29.76960036445092</v>
+        <v>11.65924793256634</v>
       </c>
       <c r="G7">
-        <v>30.79065146803321</v>
+        <v>15.58199797185649</v>
       </c>
       <c r="H7">
-        <v>14.9483837181033</v>
+        <v>6.556154552599794</v>
       </c>
       <c r="I7">
-        <v>23.61558357467132</v>
+        <v>9.396873007490415</v>
       </c>
       <c r="J7">
-        <v>9.566126001765184</v>
+        <v>7.032627146155413</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.783788722480354</v>
+        <v>7.366468438479516</v>
       </c>
       <c r="M7">
-        <v>54.12667116461887</v>
+        <v>87.01567124449869</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.99507801871776</v>
+        <v>10.10549010682901</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.973265372355829</v>
+        <v>2.627678202220605</v>
       </c>
       <c r="D8">
-        <v>8.175010060740711</v>
+        <v>3.034151341404689</v>
       </c>
       <c r="E8">
-        <v>12.58482534959716</v>
+        <v>9.865253094933578</v>
       </c>
       <c r="F8">
-        <v>29.25599221145439</v>
+        <v>11.27071329938224</v>
       </c>
       <c r="G8">
-        <v>30.24211742566301</v>
+        <v>16.67461132395417</v>
       </c>
       <c r="H8">
-        <v>14.77716986465094</v>
+        <v>6.239448615605166</v>
       </c>
       <c r="I8">
-        <v>23.2472665851873</v>
+        <v>8.932716265789137</v>
       </c>
       <c r="J8">
-        <v>9.52425759163067</v>
+        <v>7.866744690235247</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.759502701996887</v>
+        <v>8.247752243463728</v>
       </c>
       <c r="M8">
-        <v>58.61977918210538</v>
+        <v>96.38782581493928</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.66883888841021</v>
+        <v>9.932308556509621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.694063900761225</v>
+        <v>2.43364285757026</v>
       </c>
       <c r="D9">
-        <v>7.988537631555161</v>
+        <v>2.466154377596837</v>
       </c>
       <c r="E9">
-        <v>12.50455442233004</v>
+        <v>12.11093164864224</v>
       </c>
       <c r="F9">
-        <v>28.34696940436285</v>
+        <v>12.39364675286639</v>
       </c>
       <c r="G9">
-        <v>29.31474182216143</v>
+        <v>20.6655716295395</v>
       </c>
       <c r="H9">
-        <v>14.47377014838336</v>
+        <v>5.858909316237263</v>
       </c>
       <c r="I9">
-        <v>22.5937540634107</v>
+        <v>9.623993967840494</v>
       </c>
       <c r="J9">
-        <v>9.464896458834783</v>
+        <v>9.480446769790579</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.735194731728592</v>
+        <v>9.947210901572575</v>
       </c>
       <c r="M9">
-        <v>66.47800570293771</v>
+        <v>113.7908659530601</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.09807234276285</v>
+        <v>10.90054613775213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.502591253743331</v>
+        <v>3.256272512029923</v>
       </c>
       <c r="D10">
-        <v>7.86088150428598</v>
+        <v>3.0383825580661</v>
       </c>
       <c r="E10">
-        <v>12.471398990931</v>
+        <v>13.91333821665786</v>
       </c>
       <c r="F10">
-        <v>27.74025206338901</v>
+        <v>15.10988585191347</v>
       </c>
       <c r="G10">
-        <v>28.72929155757689</v>
+        <v>24.52526068379179</v>
       </c>
       <c r="H10">
-        <v>14.2707331766855</v>
+        <v>5.932715046452026</v>
       </c>
       <c r="I10">
-        <v>22.15617919154093</v>
+        <v>11.80721736622143</v>
       </c>
       <c r="J10">
-        <v>9.435605859499177</v>
+        <v>10.71738807855695</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.731957780433959</v>
+        <v>11.24562535539428</v>
       </c>
       <c r="M10">
-        <v>71.66474567775207</v>
+        <v>126.463005079662</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.72184172484331</v>
+        <v>13.00997885237921</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.418410724996233</v>
+        <v>3.711506158831587</v>
       </c>
       <c r="D11">
-        <v>7.80480704646756</v>
+        <v>3.343336801327068</v>
       </c>
       <c r="E11">
-        <v>12.46216503014899</v>
+        <v>14.80741942225856</v>
       </c>
       <c r="F11">
-        <v>27.47783700747057</v>
+        <v>16.57893223022752</v>
       </c>
       <c r="G11">
-        <v>28.485059117939</v>
+        <v>26.52729182790947</v>
       </c>
       <c r="H11">
-        <v>14.18271743546371</v>
+        <v>6.404994081312407</v>
       </c>
       <c r="I11">
-        <v>21.96651584558492</v>
+        <v>12.93291150253188</v>
       </c>
       <c r="J11">
-        <v>9.425492684474611</v>
+        <v>11.31621165207459</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.733748223920397</v>
+        <v>11.87309821460662</v>
       </c>
       <c r="M11">
-        <v>73.89658839914628</v>
+        <v>132.3885347554686</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.56029593830913</v>
+        <v>14.08256760951797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.386950945078601</v>
+        <v>3.898001096401416</v>
       </c>
       <c r="D12">
-        <v>7.783858049571767</v>
+        <v>3.467445076572289</v>
       </c>
       <c r="E12">
-        <v>12.45952940656311</v>
+        <v>15.16269691847838</v>
       </c>
       <c r="F12">
-        <v>27.38045115580831</v>
+        <v>17.17640186137649</v>
       </c>
       <c r="G12">
-        <v>28.3958653640111</v>
+        <v>27.33143421078422</v>
       </c>
       <c r="H12">
-        <v>14.15001687555614</v>
+        <v>6.596234333216114</v>
       </c>
       <c r="I12">
-        <v>21.8960612347366</v>
+        <v>13.38424406657821</v>
       </c>
       <c r="J12">
-        <v>9.422133456422188</v>
+        <v>11.55180605833898</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.734902559786031</v>
+        <v>12.11979162815045</v>
       </c>
       <c r="M12">
-        <v>74.72338469894365</v>
+        <v>134.6825980546622</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.50052668312501</v>
+        <v>14.5106217714573</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.393707839691022</v>
+        <v>3.857141741628948</v>
       </c>
       <c r="D13">
-        <v>7.788357138555019</v>
+        <v>3.440280454232766</v>
       </c>
       <c r="E13">
-        <v>12.46005841876436</v>
+        <v>15.08530163106339</v>
       </c>
       <c r="F13">
-        <v>27.4013361221887</v>
+        <v>17.04570584712344</v>
       </c>
       <c r="G13">
-        <v>28.41492653879698</v>
+        <v>27.15595093056807</v>
       </c>
       <c r="H13">
-        <v>14.1570314798796</v>
+        <v>6.554435121329642</v>
       </c>
       <c r="I13">
-        <v>21.91117383367515</v>
+        <v>13.28578412322188</v>
       </c>
       <c r="J13">
-        <v>9.422835865259964</v>
+        <v>11.50059165089643</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.734632654423915</v>
+        <v>12.06617225778001</v>
       </c>
       <c r="M13">
-        <v>74.5461353678147</v>
+        <v>134.1856864334225</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.51333619748298</v>
+        <v>14.41732758889695</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.415814155618918</v>
+        <v>3.726543382428391</v>
       </c>
       <c r="D14">
-        <v>7.803077855671272</v>
+        <v>3.353356271349032</v>
       </c>
       <c r="E14">
-        <v>12.46193082355665</v>
+        <v>14.83626574783335</v>
       </c>
       <c r="F14">
-        <v>27.46978504048097</v>
+        <v>16.62719571674273</v>
       </c>
       <c r="G14">
-        <v>28.47765444269281</v>
+        <v>26.59243983519963</v>
       </c>
       <c r="H14">
-        <v>14.18001450868774</v>
+        <v>6.420457923231883</v>
       </c>
       <c r="I14">
-        <v>21.96069201186824</v>
+        <v>12.96949102092349</v>
       </c>
       <c r="J14">
-        <v>9.425206840973905</v>
+        <v>11.33538849090162</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.733833604634887</v>
+        <v>11.89318195410686</v>
       </c>
       <c r="M14">
-        <v>73.96497718526585</v>
+        <v>132.5760494792247</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.55535039401028</v>
+        <v>14.11729941209277</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.429409217612365</v>
+        <v>3.648500314417348</v>
       </c>
       <c r="D15">
-        <v>7.812131800850697</v>
+        <v>3.301327044544366</v>
       </c>
       <c r="E15">
-        <v>12.46319045921808</v>
+        <v>14.68613999910878</v>
       </c>
       <c r="F15">
-        <v>27.51197147717689</v>
+        <v>16.37653582214064</v>
       </c>
       <c r="G15">
-        <v>28.51650929354571</v>
+        <v>26.25370241584118</v>
       </c>
       <c r="H15">
-        <v>14.19417432829696</v>
+        <v>6.340113599698223</v>
       </c>
       <c r="I15">
-        <v>21.99120182790085</v>
+        <v>12.77926478337243</v>
       </c>
       <c r="J15">
-        <v>9.426720652744939</v>
+        <v>11.23549114243675</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.733406407627788</v>
+        <v>11.78855340299554</v>
       </c>
       <c r="M15">
-        <v>73.60661118860278</v>
+        <v>131.5977100536217</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.58126895454309</v>
+        <v>13.93660396175397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.508151216058653</v>
+        <v>3.228310371498003</v>
       </c>
       <c r="D16">
-        <v>7.86458611648352</v>
+        <v>3.019509783234678</v>
       </c>
       <c r="E16">
-        <v>12.4721218538475</v>
+        <v>13.85684339800858</v>
       </c>
       <c r="F16">
-        <v>27.75767749298921</v>
+        <v>15.0191035667336</v>
       </c>
       <c r="G16">
-        <v>28.74570696258457</v>
+        <v>24.40013669791788</v>
       </c>
       <c r="H16">
-        <v>14.27657301849619</v>
+        <v>5.903409681741849</v>
       </c>
       <c r="I16">
-        <v>22.1687644810589</v>
+        <v>11.73674327721285</v>
       </c>
       <c r="J16">
-        <v>9.436332132408854</v>
+        <v>10.67924780035517</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.731907038821522</v>
+        <v>11.20563762594991</v>
       </c>
       <c r="M16">
-        <v>71.51632055839823</v>
+        <v>126.0809815196672</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.73259435660255</v>
+        <v>12.94256223240587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.557203280822776</v>
+        <v>2.992358815197421</v>
       </c>
       <c r="D17">
-        <v>7.89727519678576</v>
+        <v>2.859237900027833</v>
       </c>
       <c r="E17">
-        <v>12.47911319220721</v>
+        <v>13.37044809203527</v>
       </c>
       <c r="F17">
-        <v>27.91191101066365</v>
+        <v>14.24996269889475</v>
       </c>
       <c r="G17">
-        <v>28.89205053021409</v>
+        <v>23.33173956002527</v>
       </c>
       <c r="H17">
-        <v>14.32823803706641</v>
+        <v>5.81416692967069</v>
       </c>
       <c r="I17">
-        <v>22.28010999348311</v>
+        <v>11.13427921477559</v>
       </c>
       <c r="J17">
-        <v>9.443057035454936</v>
+        <v>10.34929156789998</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.731828014996706</v>
+        <v>10.85957771119707</v>
       </c>
       <c r="M17">
-        <v>70.20129630965175</v>
+        <v>122.7529168088742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.82790362874411</v>
+        <v>12.36472037636551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.585691847469402</v>
+        <v>2.864023357749102</v>
       </c>
       <c r="D18">
-        <v>7.91626517151348</v>
+        <v>2.771069963855894</v>
       </c>
       <c r="E18">
-        <v>12.48368371987857</v>
+        <v>13.09717741021316</v>
       </c>
       <c r="F18">
-        <v>28.00189855861769</v>
+        <v>13.82886877353284</v>
       </c>
       <c r="G18">
-        <v>28.9782956309637</v>
+        <v>22.73950537201566</v>
       </c>
       <c r="H18">
-        <v>14.35836327209901</v>
+        <v>5.813440274192017</v>
       </c>
       <c r="I18">
-        <v>22.34503592062994</v>
+        <v>10.79971601068948</v>
       </c>
       <c r="J18">
-        <v>9.447226754109527</v>
+        <v>10.16261728227702</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.732089260935416</v>
+        <v>10.6636931552458</v>
       </c>
       <c r="M18">
-        <v>69.4329140502511</v>
+        <v>120.8516654987063</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.88362541591584</v>
+        <v>12.0425233432388</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.595384916387863</v>
+        <v>2.821798685098787</v>
       </c>
       <c r="D19">
-        <v>7.9227272139875</v>
+        <v>2.741860744527452</v>
       </c>
       <c r="E19">
-        <v>12.48532495358395</v>
+        <v>13.00563245063594</v>
       </c>
       <c r="F19">
-        <v>28.03258511442542</v>
+        <v>13.68980268030573</v>
       </c>
       <c r="G19">
-        <v>29.00784922499054</v>
+        <v>22.5425879160866</v>
       </c>
       <c r="H19">
-        <v>14.36863326700803</v>
+        <v>5.814480762194099</v>
       </c>
       <c r="I19">
-        <v>22.36716989477826</v>
+        <v>10.6883682527362</v>
       </c>
       <c r="J19">
-        <v>9.448690111494038</v>
+        <v>10.09986477102776</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.732230172660095</v>
+        <v>10.59782780638124</v>
       </c>
       <c r="M19">
-        <v>69.17068988266817</v>
+        <v>120.2095551061207</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.90264614873431</v>
+        <v>11.93505773401373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.551953149903198</v>
+        <v>3.01670210228578</v>
       </c>
       <c r="D20">
-        <v>7.893775937167836</v>
+        <v>2.875871673949645</v>
       </c>
       <c r="E20">
-        <v>12.4783119573443</v>
+        <v>13.421520285335</v>
       </c>
       <c r="F20">
-        <v>27.89536025460466</v>
+        <v>14.3295971455118</v>
       </c>
       <c r="G20">
-        <v>28.87625673351738</v>
+        <v>23.44311011038837</v>
       </c>
       <c r="H20">
-        <v>14.32269586161623</v>
+        <v>5.814936100820192</v>
       </c>
       <c r="I20">
-        <v>22.26816557991492</v>
+        <v>11.19714351464426</v>
       </c>
       <c r="J20">
-        <v>9.442309867914638</v>
+        <v>10.38407403233712</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.731804633496472</v>
+        <v>10.89606820763848</v>
       </c>
       <c r="M20">
-        <v>70.34252649159779</v>
+        <v>123.1057025630842</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.81766423083812</v>
+        <v>12.42515057858717</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.40930968194335</v>
+        <v>3.764488261002084</v>
       </c>
       <c r="D21">
-        <v>7.798746300065725</v>
+        <v>3.378628688709939</v>
       </c>
       <c r="E21">
-        <v>12.46135732336385</v>
+        <v>14.9088937536125</v>
       </c>
       <c r="F21">
-        <v>27.44962579426481</v>
+        <v>16.74891363171859</v>
       </c>
       <c r="G21">
-        <v>28.45913945342511</v>
+        <v>26.75658667270496</v>
       </c>
       <c r="H21">
-        <v>14.17324672904186</v>
+        <v>6.459444374887488</v>
       </c>
       <c r="I21">
-        <v>21.94611009182468</v>
+        <v>13.06164473841419</v>
       </c>
       <c r="J21">
-        <v>9.424497591382803</v>
+        <v>11.38363308736807</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.734055320567316</v>
+        <v>11.94370535293056</v>
       </c>
       <c r="M21">
-        <v>74.13617543549145</v>
+        <v>133.0471797261243</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.54297148870851</v>
+        <v>14.20476716506139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.318516686934839</v>
+        <v>4.338782143730739</v>
       </c>
       <c r="D22">
-        <v>7.738300302743749</v>
+        <v>3.75989562753707</v>
       </c>
       <c r="E22">
-        <v>12.45530483933856</v>
+        <v>15.98449990992738</v>
       </c>
       <c r="F22">
-        <v>27.16989957904241</v>
+        <v>18.57910899295041</v>
       </c>
       <c r="G22">
-        <v>28.20577370952011</v>
+        <v>29.20189692033118</v>
       </c>
       <c r="H22">
-        <v>14.07924199537758</v>
+        <v>7.043791844118442</v>
       </c>
       <c r="I22">
-        <v>21.7436034419398</v>
+        <v>14.43288452300125</v>
       </c>
       <c r="J22">
-        <v>9.415602287219414</v>
+        <v>12.09206068571151</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.738306014411275</v>
+        <v>12.68516995685778</v>
       </c>
       <c r="M22">
-        <v>76.50857939595542</v>
+        <v>139.8644977300771</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.37164322512832</v>
+        <v>15.50144599976482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.366752827820937</v>
+        <v>4.022870626035365</v>
       </c>
       <c r="D23">
-        <v>7.770410102065719</v>
+        <v>3.550389372212991</v>
       </c>
       <c r="E23">
-        <v>12.45806843204417</v>
+        <v>15.39782549010835</v>
       </c>
       <c r="F23">
-        <v>27.31812330909714</v>
+        <v>17.57511663853168</v>
       </c>
       <c r="G23">
-        <v>28.33919937919181</v>
+        <v>27.86542555355738</v>
       </c>
       <c r="H23">
-        <v>14.12907697465247</v>
+        <v>6.723640908191615</v>
       </c>
       <c r="I23">
-        <v>21.85094957080423</v>
+        <v>13.68375977351987</v>
       </c>
       <c r="J23">
-        <v>9.420095717242063</v>
+        <v>11.70703468543382</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.735780639841735</v>
+        <v>12.28228405481027</v>
       </c>
       <c r="M23">
-        <v>75.25216389195651</v>
+        <v>136.1826866839183</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.46232588934065</v>
+        <v>14.79413564782661</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.554325837214286</v>
+        <v>3.005673860554562</v>
       </c>
       <c r="D24">
-        <v>7.895357339966688</v>
+        <v>2.868339307820051</v>
       </c>
       <c r="E24">
-        <v>12.47867248054698</v>
+        <v>13.39841112097638</v>
       </c>
       <c r="F24">
-        <v>27.90283875273307</v>
+        <v>14.29352918112171</v>
       </c>
       <c r="G24">
-        <v>28.88339054473035</v>
+        <v>23.39269163892992</v>
       </c>
       <c r="H24">
-        <v>14.32520016398225</v>
+        <v>5.814563467240531</v>
       </c>
       <c r="I24">
-        <v>22.27356281011127</v>
+        <v>11.16868619125772</v>
       </c>
       <c r="J24">
-        <v>9.442646717732085</v>
+        <v>10.3683397073145</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.731814249579731</v>
+        <v>10.87956154192124</v>
       </c>
       <c r="M24">
-        <v>70.27871481623421</v>
+        <v>122.9461722253314</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.82229057633097</v>
+        <v>12.39779926528192</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.767183469788721</v>
+        <v>2.196417417546562</v>
       </c>
       <c r="D25">
-        <v>8.037332345340952</v>
+        <v>2.597146812334117</v>
       </c>
       <c r="E25">
-        <v>12.52181707899993</v>
+        <v>11.48639380195697</v>
       </c>
       <c r="F25">
-        <v>28.58224822644983</v>
+        <v>11.57286017081837</v>
       </c>
       <c r="G25">
-        <v>29.54919732036213</v>
+        <v>19.41985852844024</v>
       </c>
       <c r="H25">
-        <v>14.55236987490627</v>
+        <v>5.926785861229337</v>
       </c>
       <c r="I25">
-        <v>22.76312271797652</v>
+        <v>8.914216289573377</v>
       </c>
       <c r="J25">
-        <v>9.478473892018654</v>
+        <v>9.040898962445008</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.739232424882939</v>
+        <v>9.484973849549826</v>
       </c>
       <c r="M25">
-        <v>64.45493694816959</v>
+        <v>109.147565409279</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.24498947289688</v>
+        <v>10.20082716675853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.510342719994349</v>
+        <v>5.151036097313706</v>
       </c>
       <c r="D2">
-        <v>2.947750190299923</v>
+        <v>3.856975109302612</v>
       </c>
       <c r="E2">
-        <v>10.16717969960305</v>
+        <v>11.54223740936492</v>
       </c>
       <c r="F2">
-        <v>11.24519851353785</v>
+        <v>39.02876110076602</v>
       </c>
       <c r="G2">
-        <v>17.05847627797103</v>
+        <v>60.85170218015703</v>
       </c>
       <c r="H2">
-        <v>6.166886023422538</v>
+        <v>3.304604513856936</v>
       </c>
       <c r="I2">
-        <v>8.854495268639448</v>
+        <v>5.752954738492507</v>
       </c>
       <c r="J2">
-        <v>8.089540661086925</v>
+        <v>16.03211210118734</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>29.37143997681532</v>
       </c>
       <c r="L2">
-        <v>8.482804375204097</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>98.84839901522294</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.928460660517775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>33.17432407945595</v>
+      </c>
+      <c r="P2">
+        <v>18.79002306891621</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.863686551002333</v>
+        <v>4.879930462938018</v>
       </c>
       <c r="D3">
-        <v>3.201855236658167</v>
+        <v>3.741095289345266</v>
       </c>
       <c r="E3">
-        <v>9.295537600358902</v>
+        <v>11.12156228724178</v>
       </c>
       <c r="F3">
-        <v>11.41441615694433</v>
+        <v>36.60792271163126</v>
       </c>
       <c r="G3">
-        <v>16.04554899674358</v>
+        <v>56.86322528244014</v>
       </c>
       <c r="H3">
-        <v>6.393138713381161</v>
+        <v>2.985117271456226</v>
       </c>
       <c r="I3">
-        <v>9.138493633365954</v>
+        <v>5.396455374643634</v>
       </c>
       <c r="J3">
-        <v>7.440323944436559</v>
+        <v>15.20747241838229</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>27.67791181138423</v>
       </c>
       <c r="L3">
-        <v>7.797476361860372</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>91.62783495852487</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.990580914253272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>31.04788259666931</v>
+      </c>
+      <c r="P3">
+        <v>18.04419578206516</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.097036060704927</v>
+        <v>4.709579481031046</v>
       </c>
       <c r="D4">
-        <v>3.362749688737374</v>
+        <v>3.666802696949512</v>
       </c>
       <c r="E4">
-        <v>8.764493676242697</v>
+        <v>10.85266144846097</v>
       </c>
       <c r="F4">
-        <v>11.65763198029599</v>
+        <v>35.0522285158967</v>
       </c>
       <c r="G4">
-        <v>15.584171797009</v>
+        <v>54.28757190531282</v>
       </c>
       <c r="H4">
-        <v>6.555216712072816</v>
+        <v>2.783879540877061</v>
       </c>
       <c r="I4">
-        <v>9.395298701083087</v>
+        <v>5.171387775699336</v>
       </c>
       <c r="J4">
-        <v>7.03487609403703</v>
+        <v>14.68316607262222</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.590417175163</v>
       </c>
       <c r="L4">
-        <v>7.368847357511288</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>87.04127480307572</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.10470606473161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>29.66465927829916</v>
+      </c>
+      <c r="P4">
+        <v>17.57179029535534</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.194893672474327</v>
+        <v>4.638413332716318</v>
       </c>
       <c r="D5">
-        <v>3.429290901173486</v>
+        <v>3.632725090171123</v>
       </c>
       <c r="E5">
-        <v>8.548376758070802</v>
+        <v>10.73712672262725</v>
       </c>
       <c r="F5">
-        <v>11.78550661158458</v>
+        <v>34.38291529660603</v>
       </c>
       <c r="G5">
-        <v>15.43410712576221</v>
+        <v>53.173878492668</v>
       </c>
       <c r="H5">
-        <v>6.626138015234003</v>
+        <v>2.699980752957284</v>
       </c>
       <c r="I5">
-        <v>9.516714174496119</v>
+        <v>5.077026762270234</v>
       </c>
       <c r="J5">
-        <v>6.86739213616911</v>
+        <v>14.4579294597421</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>26.11718338451894</v>
       </c>
       <c r="L5">
-        <v>7.19164157111834</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>85.12966345105578</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.16744956026627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>29.0751708811747</v>
+      </c>
+      <c r="P5">
+        <v>17.37710333711836</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.211283482588431</v>
+        <v>4.625733041839256</v>
       </c>
       <c r="D6">
-        <v>3.44039418273282</v>
+        <v>3.623317747119244</v>
       </c>
       <c r="E6">
-        <v>8.512489816401159</v>
+        <v>10.71379609525978</v>
       </c>
       <c r="F6">
-        <v>11.8083060118608</v>
+        <v>34.24852315188622</v>
       </c>
       <c r="G6">
-        <v>15.41139801735916</v>
+        <v>52.9474907108434</v>
       </c>
       <c r="H6">
-        <v>6.638184957816764</v>
+        <v>2.685271110656532</v>
       </c>
       <c r="I6">
-        <v>9.537785032541841</v>
+        <v>5.060114442087324</v>
       </c>
       <c r="J6">
-        <v>6.839430990061099</v>
+        <v>14.4114199827411</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26.0154871352967</v>
       </c>
       <c r="L6">
-        <v>7.162048926526731</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>84.80956738142987</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.17876990777722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>28.96840924545095</v>
+      </c>
+      <c r="P6">
+        <v>17.34604942044835</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.098345871598178</v>
+        <v>4.706380605634853</v>
       </c>
       <c r="D7">
-        <v>3.363643366573731</v>
+        <v>3.656311196324574</v>
       </c>
       <c r="E7">
-        <v>8.761578733906557</v>
+        <v>10.84032043790411</v>
       </c>
       <c r="F7">
-        <v>11.65924793256634</v>
+        <v>34.98380845563756</v>
       </c>
       <c r="G7">
-        <v>15.58199797185649</v>
+        <v>54.1670410495723</v>
       </c>
       <c r="H7">
-        <v>6.556154552599794</v>
+        <v>2.780853248734298</v>
       </c>
       <c r="I7">
-        <v>9.396873007490415</v>
+        <v>5.166833082870951</v>
       </c>
       <c r="J7">
-        <v>7.032627146155413</v>
+        <v>14.65635134290037</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.52400013033769</v>
       </c>
       <c r="L7">
-        <v>7.366468438479516</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>87.01567124449869</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.10549010682901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>29.63622876785991</v>
+      </c>
+      <c r="P7">
+        <v>17.57315809171665</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.627678202220605</v>
+        <v>5.055429083095777</v>
       </c>
       <c r="D8">
-        <v>3.034151341404689</v>
+        <v>3.804780134849759</v>
       </c>
       <c r="E8">
-        <v>9.865253094933578</v>
+        <v>11.38551594349887</v>
       </c>
       <c r="F8">
-        <v>11.27071329938224</v>
+        <v>38.13510669942767</v>
       </c>
       <c r="G8">
-        <v>16.67461132395417</v>
+        <v>59.37294698254292</v>
       </c>
       <c r="H8">
-        <v>6.239448615605166</v>
+        <v>3.192967836025441</v>
       </c>
       <c r="I8">
-        <v>8.932716265789137</v>
+        <v>5.626783842151126</v>
       </c>
       <c r="J8">
-        <v>7.866744690235247</v>
+        <v>15.72180781140014</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>28.72291913223383</v>
       </c>
       <c r="L8">
-        <v>8.247752243463728</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>96.38782581493928</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.932308556509621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>32.43194831357398</v>
+      </c>
+      <c r="P8">
+        <v>18.5411107776241</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.43364285757026</v>
+        <v>5.715897728606604</v>
       </c>
       <c r="D9">
-        <v>2.466154377596837</v>
+        <v>4.08763896654524</v>
       </c>
       <c r="E9">
-        <v>12.11093164864224</v>
+        <v>12.39101479268234</v>
       </c>
       <c r="F9">
-        <v>12.39364675286639</v>
+        <v>43.85572746509568</v>
       </c>
       <c r="G9">
-        <v>20.6655716295395</v>
+        <v>68.74730896036148</v>
       </c>
       <c r="H9">
-        <v>5.858909316237263</v>
+        <v>3.966547370962381</v>
       </c>
       <c r="I9">
-        <v>9.623993967840494</v>
+        <v>6.489131929408923</v>
       </c>
       <c r="J9">
-        <v>9.480446769790579</v>
+        <v>17.7020975356403</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.74813295286194</v>
       </c>
       <c r="L9">
-        <v>9.947210901572575</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>113.7908659530601</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.90054613775213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>37.33358491937048</v>
+      </c>
+      <c r="P9">
+        <v>20.30790745256969</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.256272512029923</v>
+        <v>6.182037610024041</v>
       </c>
       <c r="D10">
-        <v>3.0383825580661</v>
+        <v>4.240966887514165</v>
       </c>
       <c r="E10">
-        <v>13.91333821665786</v>
+        <v>13.31695894614988</v>
       </c>
       <c r="F10">
-        <v>15.10988585191347</v>
+        <v>47.52181446953625</v>
       </c>
       <c r="G10">
-        <v>24.52526068379179</v>
+        <v>74.6866070774001</v>
       </c>
       <c r="H10">
-        <v>5.932715046452026</v>
+        <v>4.485004030603077</v>
       </c>
       <c r="I10">
-        <v>11.80721736622143</v>
+        <v>7.088544917468802</v>
       </c>
       <c r="J10">
-        <v>10.71738807855695</v>
+        <v>18.97919694713929</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35.31217591662208</v>
       </c>
       <c r="L10">
-        <v>11.24562535539428</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>126.463005079662</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.00997885237921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>40.24020741703909</v>
+      </c>
+      <c r="P10">
+        <v>21.58928029278255</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.711506158831587</v>
+        <v>6.352739630178607</v>
       </c>
       <c r="D11">
-        <v>3.343336801327068</v>
+        <v>4.005048980095894</v>
       </c>
       <c r="E11">
-        <v>14.80741942225856</v>
+        <v>16.49598483229964</v>
       </c>
       <c r="F11">
-        <v>16.57893223022752</v>
+        <v>47.56902852074781</v>
       </c>
       <c r="G11">
-        <v>26.52729182790947</v>
+        <v>74.55564994937309</v>
       </c>
       <c r="H11">
-        <v>6.404994081312407</v>
+        <v>4.918887827519653</v>
       </c>
       <c r="I11">
-        <v>12.93291150253188</v>
+        <v>7.27623779543089</v>
       </c>
       <c r="J11">
-        <v>11.31621165207459</v>
+        <v>18.88842583398057</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>35.24454666634669</v>
       </c>
       <c r="L11">
-        <v>11.87309821460662</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>132.3885347554686</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.08256760951797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>38.75170510040641</v>
+      </c>
+      <c r="P11">
+        <v>22.75113840793254</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.898001096401416</v>
+        <v>6.4232493623328</v>
       </c>
       <c r="D12">
-        <v>3.467445076572289</v>
+        <v>3.789647994255186</v>
       </c>
       <c r="E12">
-        <v>15.16269691847838</v>
+        <v>19.70602804009509</v>
       </c>
       <c r="F12">
-        <v>17.17640186137649</v>
+        <v>46.91988830333428</v>
       </c>
       <c r="G12">
-        <v>27.33143421078422</v>
+        <v>73.34422406898426</v>
       </c>
       <c r="H12">
-        <v>6.596234333216114</v>
+        <v>5.70425453141673</v>
       </c>
       <c r="I12">
-        <v>13.38424406657821</v>
+        <v>7.321533392519735</v>
       </c>
       <c r="J12">
-        <v>11.55180605833898</v>
+        <v>18.57184699946412</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.72706873021362</v>
       </c>
       <c r="L12">
-        <v>12.11979162815045</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>134.6825980546622</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.5106217714573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>36.89889468528318</v>
+      </c>
+      <c r="P12">
+        <v>23.47363369776597</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.857141741628948</v>
+        <v>6.41784358563778</v>
       </c>
       <c r="D13">
-        <v>3.440280454232766</v>
+        <v>3.561786477268776</v>
       </c>
       <c r="E13">
-        <v>15.08530163106339</v>
+        <v>22.91522253058083</v>
       </c>
       <c r="F13">
-        <v>17.04570584712344</v>
+        <v>45.59729600448325</v>
       </c>
       <c r="G13">
-        <v>27.15595093056807</v>
+        <v>71.05425055367954</v>
       </c>
       <c r="H13">
-        <v>6.554435121329642</v>
+        <v>6.66634002047009</v>
       </c>
       <c r="I13">
-        <v>13.28578412322188</v>
+        <v>7.255396041140489</v>
       </c>
       <c r="J13">
-        <v>11.50059165089643</v>
+        <v>18.02126613459519</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.73938485470249</v>
       </c>
       <c r="L13">
-        <v>12.06617225778001</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>134.1856864334225</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.41732758889695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>34.57340088471647</v>
+      </c>
+      <c r="P13">
+        <v>23.9208653244422</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.726543382428391</v>
+        <v>6.380753720000505</v>
       </c>
       <c r="D14">
-        <v>3.353356271349032</v>
+        <v>3.395043952013877</v>
       </c>
       <c r="E14">
-        <v>14.83626574783335</v>
+        <v>25.17412110570764</v>
       </c>
       <c r="F14">
-        <v>16.62719571674273</v>
+        <v>44.33482192882214</v>
       </c>
       <c r="G14">
-        <v>26.59243983519963</v>
+        <v>68.90693592257411</v>
       </c>
       <c r="H14">
-        <v>6.420457923231883</v>
+        <v>7.418598851322961</v>
       </c>
       <c r="I14">
-        <v>12.96949102092349</v>
+        <v>7.158904343025671</v>
       </c>
       <c r="J14">
-        <v>11.33538849090162</v>
+        <v>17.51741189365806</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>32.80820646046641</v>
       </c>
       <c r="L14">
-        <v>11.89318195410686</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>132.5760494792247</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.11729941209277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>32.69301794407271</v>
+      </c>
+      <c r="P14">
+        <v>24.11490436310688</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.648500314417348</v>
+        <v>6.350065622976583</v>
       </c>
       <c r="D15">
-        <v>3.301327044544366</v>
+        <v>3.348786188093221</v>
       </c>
       <c r="E15">
-        <v>14.68613999910878</v>
+        <v>25.66132243280325</v>
       </c>
       <c r="F15">
-        <v>16.37653582214064</v>
+        <v>43.85991533896736</v>
       </c>
       <c r="G15">
-        <v>26.25370241584118</v>
+        <v>68.11138775923575</v>
       </c>
       <c r="H15">
-        <v>6.340113599698223</v>
+        <v>7.587866255369345</v>
       </c>
       <c r="I15">
-        <v>12.77926478337243</v>
+        <v>7.109592067584035</v>
       </c>
       <c r="J15">
-        <v>11.23549114243675</v>
+        <v>17.33582115732743</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.45877065877242</v>
       </c>
       <c r="L15">
-        <v>11.78855340299554</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>131.5977100536217</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.93660396175397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>32.12226093594025</v>
+      </c>
+      <c r="P15">
+        <v>24.10388160023256</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.228310371498003</v>
+        <v>6.150704666166646</v>
       </c>
       <c r="D16">
-        <v>3.019509783234678</v>
+        <v>3.321268153869606</v>
       </c>
       <c r="E16">
-        <v>13.85684339800858</v>
+        <v>24.80209210581493</v>
       </c>
       <c r="F16">
-        <v>15.0191035667336</v>
+        <v>42.47022684010116</v>
       </c>
       <c r="G16">
-        <v>24.40013669791788</v>
+        <v>65.87238861644046</v>
       </c>
       <c r="H16">
-        <v>5.903409681741849</v>
+        <v>7.274731583982111</v>
       </c>
       <c r="I16">
-        <v>11.73674327721285</v>
+        <v>6.866875208474801</v>
       </c>
       <c r="J16">
-        <v>10.67924780035517</v>
+        <v>16.86315567687026</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.48895317348767</v>
       </c>
       <c r="L16">
-        <v>11.20563762594991</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>126.0809815196672</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.94256223240587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31.20849437896298</v>
+      </c>
+      <c r="P16">
+        <v>23.50630388970846</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.992358815197421</v>
+        <v>6.015283603055384</v>
       </c>
       <c r="D17">
-        <v>2.859237900027833</v>
+        <v>3.388274000076762</v>
       </c>
       <c r="E17">
-        <v>13.37044809203527</v>
+        <v>22.84347915690839</v>
       </c>
       <c r="F17">
-        <v>14.24996269889475</v>
+        <v>42.0922555562091</v>
       </c>
       <c r="G17">
-        <v>23.33173956002527</v>
+        <v>65.32665164515298</v>
       </c>
       <c r="H17">
-        <v>5.81416692967069</v>
+        <v>6.580100068496535</v>
       </c>
       <c r="I17">
-        <v>11.13427921477559</v>
+        <v>6.730970252775044</v>
       </c>
       <c r="J17">
-        <v>10.34929156789998</v>
+        <v>16.77591357423917</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>31.25155768283388</v>
       </c>
       <c r="L17">
-        <v>10.85957771119707</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>122.7529168088742</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.36472037636551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31.54677654188477</v>
+      </c>
+      <c r="P17">
+        <v>22.93301039969751</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.864023357749102</v>
+        <v>5.934244955471633</v>
       </c>
       <c r="D18">
-        <v>2.771069963855894</v>
+        <v>3.554480423738335</v>
       </c>
       <c r="E18">
-        <v>13.09717741021316</v>
+        <v>19.84705573870925</v>
       </c>
       <c r="F18">
-        <v>13.82886877353284</v>
+        <v>42.59957126254697</v>
       </c>
       <c r="G18">
-        <v>22.73950537201566</v>
+        <v>66.28014207738133</v>
       </c>
       <c r="H18">
-        <v>5.813440274192017</v>
+        <v>5.566948460449632</v>
       </c>
       <c r="I18">
-        <v>10.79971601068948</v>
+        <v>6.677645392531341</v>
       </c>
       <c r="J18">
-        <v>10.16261728227702</v>
+        <v>17.03022556498188</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>31.6700395244372</v>
       </c>
       <c r="L18">
-        <v>10.6636931552458</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>120.8516654987063</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.0425233432388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33.02720272176563</v>
+      </c>
+      <c r="P18">
+        <v>22.32112499812409</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.821798685098787</v>
+        <v>5.908129870145209</v>
       </c>
       <c r="D19">
-        <v>2.741860744527452</v>
+        <v>3.777623304174672</v>
       </c>
       <c r="E19">
-        <v>13.00563245063594</v>
+        <v>16.51942339701793</v>
       </c>
       <c r="F19">
-        <v>13.68980268030573</v>
+        <v>43.68023740269397</v>
       </c>
       <c r="G19">
-        <v>22.5425879160866</v>
+        <v>68.19372826168016</v>
       </c>
       <c r="H19">
-        <v>5.814480762194099</v>
+        <v>4.622669359317888</v>
       </c>
       <c r="I19">
-        <v>10.6883682527362</v>
+        <v>6.696304310717522</v>
       </c>
       <c r="J19">
-        <v>10.09986477102776</v>
+        <v>17.49671193430741</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>32.48359664848739</v>
       </c>
       <c r="L19">
-        <v>10.59782780638124</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>120.2095551061207</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.93505773401373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>35.25627517052758</v>
+      </c>
+      <c r="P19">
+        <v>21.74046661849286</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.01670210228578</v>
+        <v>6.054598775524259</v>
       </c>
       <c r="D20">
-        <v>2.875871673949645</v>
+        <v>4.17212317756104</v>
       </c>
       <c r="E20">
-        <v>13.421520285335</v>
+        <v>13.05601156811458</v>
       </c>
       <c r="F20">
-        <v>14.3295971455118</v>
+        <v>46.42453995032282</v>
       </c>
       <c r="G20">
-        <v>23.44311011038837</v>
+        <v>72.89085298421671</v>
       </c>
       <c r="H20">
-        <v>5.814936100820192</v>
+        <v>4.341991688867868</v>
       </c>
       <c r="I20">
-        <v>11.19714351464426</v>
+        <v>6.923270088328934</v>
       </c>
       <c r="J20">
-        <v>10.38407403233712</v>
+        <v>18.58513293320079</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.49642039233778</v>
       </c>
       <c r="L20">
-        <v>10.89606820763848</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>123.1057025630842</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.42515057858717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>39.43386854116536</v>
+      </c>
+      <c r="P20">
+        <v>21.27355150272503</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.764488261002084</v>
+        <v>6.420252046337252</v>
       </c>
       <c r="D21">
-        <v>3.378628688709939</v>
+        <v>4.343593662766677</v>
       </c>
       <c r="E21">
-        <v>14.9088937536125</v>
+        <v>13.39315712197045</v>
       </c>
       <c r="F21">
-        <v>16.74891363171859</v>
+        <v>49.43994481916852</v>
       </c>
       <c r="G21">
-        <v>26.75658667270496</v>
+        <v>77.80307607453074</v>
       </c>
       <c r="H21">
-        <v>6.459444374887488</v>
+        <v>4.78217010041833</v>
       </c>
       <c r="I21">
-        <v>13.06164473841419</v>
+        <v>7.394030732303154</v>
       </c>
       <c r="J21">
-        <v>11.38363308736807</v>
+        <v>19.66257719431612</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>36.6298323320999</v>
       </c>
       <c r="L21">
-        <v>11.94370535293056</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>133.0471797261243</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.20476716506139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>42.05507763581483</v>
+      </c>
+      <c r="P21">
+        <v>22.11743524469349</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.338782143730739</v>
+        <v>6.657320747399603</v>
       </c>
       <c r="D22">
-        <v>3.75989562753707</v>
+        <v>4.446522938012031</v>
       </c>
       <c r="E22">
-        <v>15.98449990992738</v>
+        <v>13.73976032053005</v>
       </c>
       <c r="F22">
-        <v>18.57910899295041</v>
+        <v>51.3759011306089</v>
       </c>
       <c r="G22">
-        <v>29.20189692033118</v>
+        <v>80.85828479178171</v>
       </c>
       <c r="H22">
-        <v>7.043791844118442</v>
+        <v>5.054453164864216</v>
       </c>
       <c r="I22">
-        <v>14.43288452300125</v>
+        <v>7.698018811111551</v>
       </c>
       <c r="J22">
-        <v>12.09206068571151</v>
+        <v>20.33545880344284</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>37.9723703961736</v>
       </c>
       <c r="L22">
-        <v>12.68516995685778</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>139.8644977300771</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.50144599976482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>43.55830392433423</v>
+      </c>
+      <c r="P22">
+        <v>22.68182776643398</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.022870626035365</v>
+        <v>6.532590731567018</v>
       </c>
       <c r="D23">
-        <v>3.550389372212991</v>
+        <v>4.402218102915453</v>
       </c>
       <c r="E23">
-        <v>15.39782549010835</v>
+        <v>13.56633084080503</v>
       </c>
       <c r="F23">
-        <v>17.57511663853168</v>
+        <v>50.39438442871622</v>
       </c>
       <c r="G23">
-        <v>27.86542555355738</v>
+        <v>79.32660405650444</v>
       </c>
       <c r="H23">
-        <v>6.723640908191615</v>
+        <v>4.911566654842933</v>
       </c>
       <c r="I23">
-        <v>13.68375977351987</v>
+        <v>7.539243505284213</v>
       </c>
       <c r="J23">
-        <v>11.70703468543382</v>
+        <v>20.00010954575126</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>37.31416097702613</v>
       </c>
       <c r="L23">
-        <v>12.28228405481027</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>136.1826866839183</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.79413564782661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>42.78010631867362</v>
+      </c>
+      <c r="P23">
+        <v>22.37829527570591</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.005673860554562</v>
+        <v>6.056153676555673</v>
       </c>
       <c r="D24">
-        <v>2.868339307820051</v>
+        <v>4.212465097296471</v>
       </c>
       <c r="E24">
-        <v>13.39841112097638</v>
+        <v>12.87978993806959</v>
       </c>
       <c r="F24">
-        <v>14.29352918112171</v>
+        <v>46.59917477930838</v>
       </c>
       <c r="G24">
-        <v>23.39269163892992</v>
+        <v>73.20301048690045</v>
       </c>
       <c r="H24">
-        <v>5.814563467240531</v>
+        <v>4.362290472792138</v>
       </c>
       <c r="I24">
-        <v>11.16868619125772</v>
+        <v>6.92774129158079</v>
       </c>
       <c r="J24">
-        <v>10.3683397073145</v>
+        <v>18.66095142386809</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.65297490472051</v>
       </c>
       <c r="L24">
-        <v>10.87956154192124</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>122.9461722253314</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.39779926528192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39.67374879468932</v>
+      </c>
+      <c r="P24">
+        <v>21.19827870099077</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.196417417546562</v>
+        <v>5.536443135077807</v>
       </c>
       <c r="D25">
-        <v>2.597146812334117</v>
+        <v>3.997027551022061</v>
       </c>
       <c r="E25">
-        <v>11.48639380195697</v>
+        <v>12.10937775451162</v>
       </c>
       <c r="F25">
-        <v>11.57286017081837</v>
+        <v>42.27625271892932</v>
       </c>
       <c r="G25">
-        <v>19.41985852844024</v>
+        <v>66.15675237267934</v>
       </c>
       <c r="H25">
-        <v>5.926785861229337</v>
+        <v>3.757587539628368</v>
       </c>
       <c r="I25">
-        <v>8.914216289573377</v>
+        <v>6.254761040711133</v>
       </c>
       <c r="J25">
-        <v>9.040898962445008</v>
+        <v>17.1451314441589</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>31.60734551369189</v>
       </c>
       <c r="L25">
-        <v>9.484973849549826</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>109.147565409279</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.20082716675853</v>
+        <v>36.04147687775119</v>
+      </c>
+      <c r="P25">
+        <v>19.85115783391853</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.151036097313706</v>
+        <v>5.929248323433612</v>
       </c>
       <c r="D2">
-        <v>3.856975109302612</v>
+        <v>3.350297073221289</v>
       </c>
       <c r="E2">
-        <v>11.54223740936492</v>
+        <v>10.29357228182306</v>
       </c>
       <c r="F2">
-        <v>39.02876110076602</v>
+        <v>34.87917984027318</v>
       </c>
       <c r="G2">
-        <v>60.85170218015703</v>
+        <v>53.16466018800375</v>
       </c>
       <c r="H2">
-        <v>3.304604513856936</v>
+        <v>3.054186579683031</v>
       </c>
       <c r="I2">
-        <v>5.752954738492507</v>
+        <v>5.219417654096176</v>
       </c>
       <c r="J2">
-        <v>16.03211210118734</v>
+        <v>14.97653245542539</v>
       </c>
       <c r="K2">
-        <v>29.37143997681532</v>
+        <v>25.2488210526618</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>21.19081391082626</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.30393798629721</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.17432407945595</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>18.79002306891621</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>31.71669383197116</v>
+      </c>
+      <c r="R2">
+        <v>19.0970865789689</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.879930462938018</v>
+        <v>5.530247084627569</v>
       </c>
       <c r="D3">
-        <v>3.741095289345266</v>
+        <v>3.295681397169831</v>
       </c>
       <c r="E3">
-        <v>11.12156228724178</v>
+        <v>10.03768043954396</v>
       </c>
       <c r="F3">
-        <v>36.60792271163126</v>
+        <v>32.88317639382672</v>
       </c>
       <c r="G3">
-        <v>56.86322528244014</v>
+        <v>49.85796129682611</v>
       </c>
       <c r="H3">
-        <v>2.985117271456226</v>
+        <v>2.770906786469094</v>
       </c>
       <c r="I3">
-        <v>5.396455374643634</v>
+        <v>4.941368325180687</v>
       </c>
       <c r="J3">
-        <v>15.20747241838229</v>
+        <v>14.33228762270318</v>
       </c>
       <c r="K3">
-        <v>27.67791181138423</v>
+        <v>23.98041107970181</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>20.57446057102563</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.93537286341905</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.04788259666931</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>18.04419578206516</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>29.73008746206936</v>
+      </c>
+      <c r="R3">
+        <v>18.31444172247646</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.709579481031046</v>
+        <v>5.279583710820035</v>
       </c>
       <c r="D4">
-        <v>3.666802696949512</v>
+        <v>3.259721361495187</v>
       </c>
       <c r="E4">
-        <v>10.85266144846097</v>
+        <v>9.873125169034413</v>
       </c>
       <c r="F4">
-        <v>35.0522285158967</v>
+        <v>31.59955051565158</v>
       </c>
       <c r="G4">
-        <v>54.28757190531282</v>
+        <v>47.72189600010009</v>
       </c>
       <c r="H4">
-        <v>2.783879540877061</v>
+        <v>2.59197764809766</v>
       </c>
       <c r="I4">
-        <v>5.171387775699336</v>
+        <v>4.765324378693946</v>
       </c>
       <c r="J4">
-        <v>14.68316607262222</v>
+        <v>13.92091765150985</v>
       </c>
       <c r="K4">
-        <v>26.590417175163</v>
+        <v>23.16535122052886</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>20.17272504449611</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.05854074044913</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.66465927829916</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>17.57179029535534</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>28.43666319976796</v>
+      </c>
+      <c r="R4">
+        <v>17.81841609097089</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.638413332716318</v>
+        <v>5.182141567462261</v>
       </c>
       <c r="D5">
-        <v>3.632725090171123</v>
+        <v>3.242444954348565</v>
       </c>
       <c r="E5">
-        <v>10.73712672262725</v>
+        <v>9.801875044016128</v>
       </c>
       <c r="F5">
-        <v>34.38291529660603</v>
+        <v>31.04561689135929</v>
       </c>
       <c r="G5">
-        <v>53.173878492668</v>
+        <v>46.79538384200276</v>
       </c>
       <c r="H5">
-        <v>2.699980752957284</v>
+        <v>2.517312161099079</v>
       </c>
       <c r="I5">
-        <v>5.077026762270234</v>
+        <v>4.691601946067907</v>
       </c>
       <c r="J5">
-        <v>14.4579294597421</v>
+        <v>13.74308513379018</v>
       </c>
       <c r="K5">
-        <v>26.11718338451894</v>
+        <v>22.80790165103152</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>19.99102726622116</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.67970617167361</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.0751708811747</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>17.37710333711836</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>27.8853228551357</v>
+      </c>
+      <c r="R5">
+        <v>17.61376547063173</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.625733041839256</v>
+        <v>5.173431774990579</v>
       </c>
       <c r="D6">
-        <v>3.623317747119244</v>
+        <v>3.237079678591787</v>
       </c>
       <c r="E6">
-        <v>10.71379609525978</v>
+        <v>9.78711723353053</v>
       </c>
       <c r="F6">
-        <v>34.24852315188622</v>
+        <v>30.93258981348346</v>
       </c>
       <c r="G6">
-        <v>52.9474907108434</v>
+        <v>46.60371810873011</v>
       </c>
       <c r="H6">
-        <v>2.685271110656532</v>
+        <v>2.504270582986377</v>
       </c>
       <c r="I6">
-        <v>5.060114442087324</v>
+        <v>4.678680084870741</v>
       </c>
       <c r="J6">
-        <v>14.4114199827411</v>
+        <v>13.70553938874352</v>
       </c>
       <c r="K6">
-        <v>26.0154871352967</v>
+        <v>22.72794911077543</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>19.94568793470259</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.60061401209351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.96840924545095</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>17.34604942044835</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>27.78561913738763</v>
+      </c>
+      <c r="R6">
+        <v>17.58092443778543</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.706380605634853</v>
+        <v>5.292913743809576</v>
       </c>
       <c r="D7">
-        <v>3.656311196324574</v>
+        <v>3.248664079076714</v>
       </c>
       <c r="E7">
-        <v>10.84032043790411</v>
+        <v>9.860588169708347</v>
       </c>
       <c r="F7">
-        <v>34.98380845563756</v>
+        <v>31.50542627370974</v>
       </c>
       <c r="G7">
-        <v>54.1670410495723</v>
+        <v>47.69759873543783</v>
       </c>
       <c r="H7">
-        <v>2.780853248734298</v>
+        <v>2.588640256205203</v>
       </c>
       <c r="I7">
-        <v>5.166833082870951</v>
+        <v>4.76139183967894</v>
       </c>
       <c r="J7">
-        <v>14.65635134290037</v>
+        <v>13.82025127384796</v>
       </c>
       <c r="K7">
-        <v>26.52400013033769</v>
+        <v>23.08415825616394</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>20.11405825472682</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.9938156358457</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.63622876785991</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>17.57315809171665</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>28.39920454588603</v>
+      </c>
+      <c r="R7">
+        <v>17.82151724945827</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.055429083095777</v>
+        <v>5.800661276659067</v>
       </c>
       <c r="D8">
-        <v>3.804780134849759</v>
+        <v>3.310068311479712</v>
       </c>
       <c r="E8">
-        <v>11.38551594349887</v>
+        <v>10.18476958168559</v>
       </c>
       <c r="F8">
-        <v>38.13510669942767</v>
+        <v>34.03541893072656</v>
       </c>
       <c r="G8">
-        <v>59.37294698254292</v>
+        <v>52.18822145807833</v>
       </c>
       <c r="H8">
-        <v>3.192967836025441</v>
+        <v>2.952967986858853</v>
       </c>
       <c r="I8">
-        <v>5.626783842151126</v>
+        <v>5.118542533318098</v>
       </c>
       <c r="J8">
-        <v>15.72180781140014</v>
+        <v>14.48785457705128</v>
       </c>
       <c r="K8">
-        <v>28.72291913223383</v>
+        <v>24.68182881879061</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>20.88267953662653</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.73308365121729</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.43194831357398</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>18.5411107776241</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.98922260431661</v>
+      </c>
+      <c r="R8">
+        <v>18.84228347184727</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.715897728606604</v>
+        <v>6.739498149842066</v>
       </c>
       <c r="D9">
-        <v>4.08763896654524</v>
+        <v>3.437575216366801</v>
       </c>
       <c r="E9">
-        <v>12.39101479268234</v>
+        <v>10.79016657492934</v>
       </c>
       <c r="F9">
-        <v>43.85572746509568</v>
+        <v>38.7359909133552</v>
       </c>
       <c r="G9">
-        <v>68.74730896036148</v>
+        <v>59.99567403091974</v>
       </c>
       <c r="H9">
-        <v>3.966547370962381</v>
+        <v>3.63492122080515</v>
       </c>
       <c r="I9">
-        <v>6.489131929408923</v>
+        <v>5.786378840851858</v>
       </c>
       <c r="J9">
-        <v>17.7020975356403</v>
+        <v>15.9862992459595</v>
       </c>
       <c r="K9">
-        <v>32.74813295286194</v>
+        <v>27.69154466163988</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>22.331192298906</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>19.97307860025103</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>37.33358491937048</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.30790745256969</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>35.5561196851468</v>
+      </c>
+      <c r="R9">
+        <v>20.696605832047</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.182037610024041</v>
+        <v>7.357817486482608</v>
       </c>
       <c r="D10">
-        <v>4.240966887514165</v>
+        <v>3.474048885998226</v>
       </c>
       <c r="E10">
-        <v>13.31695894614988</v>
+        <v>11.36608715401045</v>
       </c>
       <c r="F10">
-        <v>47.52181446953625</v>
+        <v>41.57926537061861</v>
       </c>
       <c r="G10">
-        <v>74.6866070774001</v>
+        <v>65.29261934498277</v>
       </c>
       <c r="H10">
-        <v>4.485004030603077</v>
+        <v>4.083016134387914</v>
       </c>
       <c r="I10">
-        <v>7.088544917468802</v>
+        <v>6.242302496281728</v>
       </c>
       <c r="J10">
-        <v>18.97919694713929</v>
+        <v>16.56265635507447</v>
       </c>
       <c r="K10">
-        <v>35.31217591662208</v>
+        <v>29.48472927723434</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>23.11564731630308</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.14209001029158</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>40.24020741703909</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>21.58928029278255</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>38.19410577355507</v>
+      </c>
+      <c r="R10">
+        <v>22.04571859285737</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.352739630178607</v>
+        <v>7.382006435530856</v>
       </c>
       <c r="D11">
-        <v>4.005048980095894</v>
+        <v>3.280273307065309</v>
       </c>
       <c r="E11">
-        <v>16.49598483229964</v>
+        <v>14.09732403165013</v>
       </c>
       <c r="F11">
-        <v>47.56902852074781</v>
+        <v>41.21594430066387</v>
       </c>
       <c r="G11">
-        <v>74.55564994937309</v>
+        <v>65.87181430152062</v>
       </c>
       <c r="H11">
-        <v>4.918887827519653</v>
+        <v>4.535801364775775</v>
       </c>
       <c r="I11">
-        <v>7.27623779543089</v>
+        <v>6.379323697780878</v>
       </c>
       <c r="J11">
-        <v>18.88842583398057</v>
+        <v>15.62848858715881</v>
       </c>
       <c r="K11">
-        <v>35.24454666634669</v>
+        <v>29.11118862055698</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>22.61396251608332</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22.20141506996811</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>38.75170510040641</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>22.75113840793254</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>36.59389679142797</v>
+      </c>
+      <c r="R11">
+        <v>23.23989045051657</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.4232493623328</v>
+        <v>7.287355045634983</v>
       </c>
       <c r="D12">
-        <v>3.789647994255186</v>
+        <v>3.146923726107637</v>
       </c>
       <c r="E12">
-        <v>19.70602804009509</v>
+        <v>17.18083861340397</v>
       </c>
       <c r="F12">
-        <v>46.91988830333428</v>
+        <v>40.47151263775126</v>
       </c>
       <c r="G12">
-        <v>73.34422406898426</v>
+        <v>65.16386730871149</v>
       </c>
       <c r="H12">
-        <v>5.70425453141673</v>
+        <v>5.380204376574095</v>
       </c>
       <c r="I12">
-        <v>7.321533392519735</v>
+        <v>6.411479590984475</v>
       </c>
       <c r="J12">
-        <v>18.57184699946412</v>
+        <v>14.96783969586663</v>
       </c>
       <c r="K12">
-        <v>34.72706873021362</v>
+        <v>28.54987282903323</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>22.12098850165039</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.90899274804791</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.89889468528318</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>23.47363369776597</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>34.73110037539992</v>
+      </c>
+      <c r="R12">
+        <v>23.96915164986768</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.41784358563778</v>
+        <v>7.122954428011248</v>
       </c>
       <c r="D13">
-        <v>3.561786477268776</v>
+        <v>3.043884678325306</v>
       </c>
       <c r="E13">
-        <v>22.91522253058083</v>
+        <v>20.43593118481993</v>
       </c>
       <c r="F13">
-        <v>45.59729600448325</v>
+        <v>39.36067888214345</v>
       </c>
       <c r="G13">
-        <v>71.05425055367954</v>
+        <v>63.095295935287</v>
       </c>
       <c r="H13">
-        <v>6.66634002047009</v>
+        <v>6.407632012129453</v>
       </c>
       <c r="I13">
-        <v>7.255396041140489</v>
+        <v>6.364553095538969</v>
       </c>
       <c r="J13">
-        <v>18.02126613459519</v>
+        <v>14.5964847770839</v>
       </c>
       <c r="K13">
-        <v>33.73938485470249</v>
+        <v>27.77135377208203</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>21.57575436166817</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>21.2997208147527</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.57340088471647</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>23.9208653244422</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>32.49547696964499</v>
+      </c>
+      <c r="R13">
+        <v>24.39914483715396</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.380753720000505</v>
+        <v>6.979469670466074</v>
       </c>
       <c r="D14">
-        <v>3.395043952013877</v>
+        <v>2.982331015917167</v>
       </c>
       <c r="E14">
-        <v>25.17412110570764</v>
+        <v>22.79373815810223</v>
       </c>
       <c r="F14">
-        <v>44.33482192882214</v>
+        <v>38.38644115867169</v>
       </c>
       <c r="G14">
-        <v>68.90693592257411</v>
+        <v>60.98532793353492</v>
       </c>
       <c r="H14">
-        <v>7.418598851322961</v>
+        <v>7.202072242673118</v>
       </c>
       <c r="I14">
-        <v>7.158904343025671</v>
+        <v>6.296235640278367</v>
       </c>
       <c r="J14">
-        <v>17.51741189365806</v>
+        <v>14.45005518911861</v>
       </c>
       <c r="K14">
-        <v>32.80820646046641</v>
+        <v>27.10318856392316</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>21.1528169725981</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.71030035952084</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.69301794407271</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>24.11490436310688</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>30.7228988806239</v>
+      </c>
+      <c r="R14">
+        <v>24.57034354722156</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.350065622976583</v>
+        <v>6.929427941249335</v>
       </c>
       <c r="D15">
-        <v>3.348786188093221</v>
+        <v>2.968788265679332</v>
       </c>
       <c r="E15">
-        <v>25.66132243280325</v>
+        <v>23.32892961967928</v>
       </c>
       <c r="F15">
-        <v>43.85991533896736</v>
+        <v>38.04556072434103</v>
       </c>
       <c r="G15">
-        <v>68.11138775923575</v>
+        <v>60.15278739313514</v>
       </c>
       <c r="H15">
-        <v>7.587866255369345</v>
+        <v>7.38274176006304</v>
       </c>
       <c r="I15">
-        <v>7.109592067584035</v>
+        <v>6.261363864799989</v>
       </c>
       <c r="J15">
-        <v>17.33582115732743</v>
+        <v>14.45665431908004</v>
       </c>
       <c r="K15">
-        <v>32.45877065877242</v>
+        <v>26.87147987648801</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>21.02231138014449</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.48003856913822</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.12226093594025</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>24.10388160023256</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>30.19873658791576</v>
+      </c>
+      <c r="R15">
+        <v>24.54892130975047</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.150704666166646</v>
+        <v>6.730821186707361</v>
       </c>
       <c r="D16">
-        <v>3.321268153869606</v>
+        <v>2.984320934930405</v>
       </c>
       <c r="E16">
-        <v>24.80209210581493</v>
+        <v>22.66405841707164</v>
       </c>
       <c r="F16">
-        <v>42.47022684010116</v>
+        <v>37.20146507117805</v>
       </c>
       <c r="G16">
-        <v>65.87238861644046</v>
+        <v>57.55634409854157</v>
       </c>
       <c r="H16">
-        <v>7.274731583982111</v>
+        <v>7.088862301925264</v>
       </c>
       <c r="I16">
-        <v>6.866875208474801</v>
+        <v>6.084835111036646</v>
       </c>
       <c r="J16">
-        <v>16.86315567687026</v>
+        <v>14.82603162816647</v>
       </c>
       <c r="K16">
-        <v>31.48895317348767</v>
+        <v>26.36023823174181</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>20.8654063463128</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.75731031027727</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.20849437896298</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>23.50630388970846</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>29.4580553165236</v>
+      </c>
+      <c r="R16">
+        <v>23.90993070105919</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.015283603055384</v>
+        <v>6.65288260640749</v>
       </c>
       <c r="D17">
-        <v>3.388274000076762</v>
+        <v>3.029231687600237</v>
       </c>
       <c r="E17">
-        <v>22.84347915690839</v>
+        <v>20.78694076623232</v>
       </c>
       <c r="F17">
-        <v>42.0922555562091</v>
+        <v>37.04772805505361</v>
       </c>
       <c r="G17">
-        <v>65.32665164515298</v>
+        <v>56.82794000476434</v>
       </c>
       <c r="H17">
-        <v>6.580100068496535</v>
+        <v>6.388420507749928</v>
       </c>
       <c r="I17">
-        <v>6.730970252775044</v>
+        <v>5.983603412883195</v>
       </c>
       <c r="J17">
-        <v>16.77591357423917</v>
+        <v>15.09461696760656</v>
       </c>
       <c r="K17">
-        <v>31.25155768283388</v>
+        <v>26.3048627957886</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>20.95687535967658</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.49993690087971</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.54677654188477</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>22.93301039969751</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>29.858930947997</v>
+      </c>
+      <c r="R17">
+        <v>23.31978861993996</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.934244955471633</v>
+        <v>6.677587397022762</v>
       </c>
       <c r="D18">
-        <v>3.554480423738335</v>
+        <v>3.120174879660872</v>
       </c>
       <c r="E18">
-        <v>19.84705573870925</v>
+        <v>17.80854572448623</v>
       </c>
       <c r="F18">
-        <v>42.59957126254697</v>
+        <v>37.57423962635427</v>
       </c>
       <c r="G18">
-        <v>66.28014207738133</v>
+        <v>57.56768971113097</v>
       </c>
       <c r="H18">
-        <v>5.566948460449632</v>
+        <v>5.34111026497353</v>
       </c>
       <c r="I18">
-        <v>6.677645392531341</v>
+        <v>5.941415098857168</v>
       </c>
       <c r="J18">
-        <v>17.03022556498188</v>
+        <v>15.45992440634474</v>
       </c>
       <c r="K18">
-        <v>31.6700395244372</v>
+        <v>26.71861545225854</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>21.33236573310303</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.68640463446679</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.02720272176563</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>22.32112499812409</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>31.32972158428571</v>
+      </c>
+      <c r="R18">
+        <v>22.70652143894994</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.908129870145209</v>
+        <v>6.82833298400551</v>
       </c>
       <c r="D19">
-        <v>3.777623304174672</v>
+        <v>3.244677943687427</v>
       </c>
       <c r="E19">
-        <v>16.51942339701793</v>
+        <v>14.49793134438575</v>
       </c>
       <c r="F19">
-        <v>43.68023740269397</v>
+        <v>38.53954514223641</v>
       </c>
       <c r="G19">
-        <v>68.19372826168016</v>
+        <v>59.21445237154649</v>
       </c>
       <c r="H19">
-        <v>4.622669359317888</v>
+        <v>4.333895412142274</v>
       </c>
       <c r="I19">
-        <v>6.696304310717522</v>
+        <v>5.954356588900773</v>
       </c>
       <c r="J19">
-        <v>17.49671193430741</v>
+        <v>15.89647210652033</v>
       </c>
       <c r="K19">
-        <v>32.48359664848739</v>
+        <v>27.40417973312635</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>21.85533339369139</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>20.16419613001491</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.25627517052758</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>21.74046661849286</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>33.50226869673529</v>
+      </c>
+      <c r="R19">
+        <v>22.13454271098261</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.054598775524259</v>
+        <v>7.264167160983634</v>
       </c>
       <c r="D20">
-        <v>4.17212317756104</v>
+        <v>3.459507115931945</v>
       </c>
       <c r="E20">
-        <v>13.05601156811458</v>
+        <v>11.214840621386</v>
       </c>
       <c r="F20">
-        <v>46.42453995032282</v>
+        <v>40.80139591181631</v>
       </c>
       <c r="G20">
-        <v>72.89085298421671</v>
+        <v>63.45531682090181</v>
       </c>
       <c r="H20">
-        <v>4.341991688867868</v>
+        <v>3.962468894970568</v>
       </c>
       <c r="I20">
-        <v>6.923270088328934</v>
+        <v>6.122942678186961</v>
       </c>
       <c r="J20">
-        <v>18.58513293320079</v>
+        <v>16.58863850805471</v>
       </c>
       <c r="K20">
-        <v>34.49642039233778</v>
+        <v>28.94916728685168</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>22.86064378897104</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.52901955283474</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>39.43386854116536</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>21.27355150272503</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>37.49361371671662</v>
+      </c>
+      <c r="R20">
+        <v>21.70475467856499</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.420252046337252</v>
+        <v>7.681961887158247</v>
       </c>
       <c r="D21">
-        <v>4.343593662766677</v>
+        <v>3.451670829603801</v>
       </c>
       <c r="E21">
-        <v>13.39315712197045</v>
+        <v>11.31298277280454</v>
       </c>
       <c r="F21">
-        <v>49.43994481916852</v>
+        <v>42.69564399797552</v>
       </c>
       <c r="G21">
-        <v>77.80307607453074</v>
+        <v>69.01753761390995</v>
       </c>
       <c r="H21">
-        <v>4.78217010041833</v>
+        <v>4.331424767275852</v>
       </c>
       <c r="I21">
-        <v>7.394030732303154</v>
+        <v>6.462541939359685</v>
       </c>
       <c r="J21">
-        <v>19.66257719431612</v>
+        <v>15.93555341619967</v>
       </c>
       <c r="K21">
-        <v>36.6298323320999</v>
+        <v>30.13594696122045</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>23.33378597211797</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.02158999031081</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>42.05507763581483</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>22.11743524469349</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>39.73774567902558</v>
+      </c>
+      <c r="R21">
+        <v>22.63662403532417</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.657320747399603</v>
+        <v>7.917283760081224</v>
       </c>
       <c r="D22">
-        <v>4.446522938012031</v>
+        <v>3.436575049356774</v>
       </c>
       <c r="E22">
-        <v>13.73976032053005</v>
+        <v>11.47656674969095</v>
       </c>
       <c r="F22">
-        <v>51.3759011306089</v>
+        <v>43.83802485641034</v>
       </c>
       <c r="G22">
-        <v>80.85828479178171</v>
+        <v>72.5730125932397</v>
       </c>
       <c r="H22">
-        <v>5.054453164864216</v>
+        <v>4.556479226826801</v>
       </c>
       <c r="I22">
-        <v>7.698018811111551</v>
+        <v>6.679567001874933</v>
       </c>
       <c r="J22">
-        <v>20.33545880344284</v>
+        <v>15.42664341186012</v>
       </c>
       <c r="K22">
-        <v>37.9723703961736</v>
+        <v>30.86129493360603</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>23.6114805647593</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.94221215541144</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>43.55830392433423</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>22.68182776643398</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>40.99462673619868</v>
+      </c>
+      <c r="R22">
+        <v>23.25875760383068</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.532590731567018</v>
+        <v>7.783892795608121</v>
       </c>
       <c r="D23">
-        <v>4.402218102915453</v>
+        <v>3.460452812735147</v>
       </c>
       <c r="E23">
-        <v>13.56633084080503</v>
+        <v>11.40317138637945</v>
       </c>
       <c r="F23">
-        <v>50.39438442871622</v>
+        <v>43.34383421874251</v>
       </c>
       <c r="G23">
-        <v>79.32660405650444</v>
+        <v>70.60875652312286</v>
       </c>
       <c r="H23">
-        <v>4.911566654842933</v>
+        <v>4.440044995225048</v>
       </c>
       <c r="I23">
-        <v>7.539243505284213</v>
+        <v>6.567320366859242</v>
       </c>
       <c r="J23">
-        <v>20.00010954575126</v>
+        <v>15.87997683833907</v>
       </c>
       <c r="K23">
-        <v>37.31416097702613</v>
+        <v>30.57103325492405</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>23.53332810271546</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.52546571293465</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>42.78010631867362</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>22.37829527570591</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>40.36741151503857</v>
+      </c>
+      <c r="R23">
+        <v>22.9200875016991</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.056153676555673</v>
+        <v>7.249511449097795</v>
       </c>
       <c r="D24">
-        <v>4.212465097296471</v>
+        <v>3.485912608927934</v>
       </c>
       <c r="E24">
-        <v>12.87978993806959</v>
+        <v>11.0781190297636</v>
       </c>
       <c r="F24">
-        <v>46.59917477930838</v>
+        <v>40.96341634802943</v>
       </c>
       <c r="G24">
-        <v>73.20301048690045</v>
+        <v>63.7229326966027</v>
       </c>
       <c r="H24">
-        <v>4.362290472792138</v>
+        <v>3.981448695407683</v>
       </c>
       <c r="I24">
-        <v>6.92774129158079</v>
+        <v>6.124458745502034</v>
       </c>
       <c r="J24">
-        <v>18.66095142386809</v>
+        <v>16.66828896456905</v>
       </c>
       <c r="K24">
-        <v>34.65297490472051</v>
+        <v>29.0900942769604</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>22.96975150781785</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.62779522449484</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>39.67374879468932</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>21.19827870099077</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>37.72723111872926</v>
+      </c>
+      <c r="R24">
+        <v>21.63030414285514</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.536443135077807</v>
+        <v>6.529639954610539</v>
       </c>
       <c r="D25">
-        <v>3.997027551022061</v>
+        <v>3.399731903710809</v>
       </c>
       <c r="E25">
-        <v>12.10937775451162</v>
+        <v>10.62473232835352</v>
       </c>
       <c r="F25">
-        <v>42.27625271892932</v>
+        <v>37.47182064215774</v>
       </c>
       <c r="G25">
-        <v>66.15675237267934</v>
+        <v>57.7253510355899</v>
       </c>
       <c r="H25">
-        <v>3.757587539628368</v>
+        <v>3.452644826755602</v>
       </c>
       <c r="I25">
-        <v>6.254761040711133</v>
+        <v>5.608294392106391</v>
       </c>
       <c r="J25">
-        <v>17.1451314441589</v>
+        <v>15.65974994274027</v>
       </c>
       <c r="K25">
-        <v>31.60734551369189</v>
+        <v>26.85334441049771</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>21.91780667733312</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.08702364981315</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>36.04147687775119</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>19.85115783391853</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>34.36799584030335</v>
+      </c>
+      <c r="R25">
+        <v>20.21370771725197</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
